--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{53D85DAD-9C07-422B-99AB-2CF09FBE8772}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{39B23785-F77B-4074-9BD5-B9362C04CFE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15760" windowHeight="4530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,14 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공간분류 
- insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '홀');
- insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '바');
- insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '카운터');
- insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '테라스');
- insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '화장실');</t>
-  </si>
-  <si>
     <t>미들</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -488,6 +480,15 @@
 yunjin / 김연진
 // 매뉴얼업무코드 not null -&gt; null 변경
 alter table daily_tasks modify manual_tasks_seq number(5) null;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류 
+ insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '홀');
+ insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '바');
+ insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '카운터');
+ insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '테라스');
+ insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '화장실');</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -904,7 +905,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>55</v>
@@ -1428,7 +1429,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1732,7 +1733,7 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -1793,7 +1794,7 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.45"/>
     <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{39B23785-F77B-4074-9BD5-B9362C04CFE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15760" windowHeight="4530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15756" windowHeight="4536" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
     <sheet name="일일업무" sheetId="2" r:id="rId2"/>
+    <sheet name="DB Insert용" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무!$A$1:$D$35</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="138">
   <si>
     <t>위생관리</t>
   </si>
@@ -457,45 +461,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일업무 데이터 넣을 때 설정하는 것
-** 완료자아이디 &amp; 완료자명 없을 수 있다
-** 중요업무여부 0, 1 (알아서 설정)
-** 직접입력업무 1개씩
-** 오픈, 미들, 마감, 개인업무 2~3개씩
-배정날짜 DATE
-(아래는 약식)
-2018/05/06 ~ 07  - 찬영
-2018/05/08 ~ 09  - 태훈
-2018/05/10 ~ 11  - 윤석
-지점코드 branch_seq 는 1 (매장 하나임)
-완료자 아이디 / 완료자 명
-yunseok / 장윤석
-chanyoung / 주찬영
-taehun / 김태훈
-yunyoung / 홍윤영
-yunjin / 김연진
-// 매뉴얼업무코드 not null -&gt; null 변경
-alter table daily_tasks modify manual_tasks_seq number(5) null;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공간분류 
  insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '홀');
  insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '바');
  insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '카운터');
  insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '테라스');
  insert into space_types(space_types_seq, space_type) values(space_types_seq.nextval, '화장실');</t>
+  </si>
+  <si>
+    <t>미들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily_tasks_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>importance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼업무코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual_tasks_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finisher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily_tasks_seq.nextval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/05/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunjin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김연진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunyoung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/05/07</t>
+  </si>
+  <si>
+    <t>파라솔 상태 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunseok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chanyoung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taehun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigner_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주찬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장윤석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬영SQL문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,12 +625,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -535,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +660,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,23 +980,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="30.4140625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.9140625" customWidth="1"/>
-    <col min="6" max="6" width="148.4140625" customWidth="1"/>
-    <col min="7" max="7" width="76.25" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" customWidth="1"/>
+    <col min="6" max="6" width="148.3984375" customWidth="1"/>
+    <col min="7" max="7" width="76.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,7 +1013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="167.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="167.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -905,13 +1024,13 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -931,7 +1050,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -945,7 +1064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -962,7 +1081,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -976,7 +1095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1112,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1007,7 +1126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1024,7 +1143,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -1038,7 +1157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -1073,7 +1192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -1098,7 +1217,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -1129,7 +1248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1140,7 +1259,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -1148,7 +1267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1168,7 +1287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>82</v>
@@ -1183,7 +1302,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1319,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C22" s="3" t="s">
         <v>85</v>
       </c>
@@ -1214,7 +1333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1350,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1245,7 +1364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1258,7 +1377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C26" s="3" t="s">
         <v>91</v>
       </c>
@@ -1268,7 +1387,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1288,7 +1407,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -1302,7 +1421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1319,7 +1438,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>47</v>
       </c>
@@ -1327,7 +1446,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -1361,7 +1480,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1378,7 +1497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -1392,7 +1511,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -1409,7 +1528,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -1425,21 +1544,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A8806-9519-42B2-8BC4-39A19318EE5A}">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.4140625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.9140625" customWidth="1"/>
+    <col min="1" max="1" width="30.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1449,30 +1570,39 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1482,186 +1612,219 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>62</v>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -1669,19 +1832,25 @@
       <c r="C21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
@@ -1691,32 +1860,33 @@
       <c r="C23" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -1724,87 +1894,986 @@
       <c r="C26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
-      </c>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{E6DF14E8-3CC0-4E25-AF95-FE471687BBC3}">
-    <sortState ref="A2:C36">
-      <sortCondition ref="C1"/>
+  <autoFilter ref="A1:D35">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="기간"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:D35">
+      <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="1">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="1">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="1">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="1">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="1">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="1">
+        <v>31</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="1">
+        <v>17</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="1">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="1">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60B544A9-A7EC-4792-9834-9E6502985BC5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15756" windowHeight="4536" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="4530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
     <sheet name="일일업무" sheetId="2" r:id="rId2"/>
     <sheet name="DB Insert용" sheetId="3" r:id="rId3"/>
+    <sheet name="daily_tasks_query" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무!$A$1:$D$35</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="224">
   <si>
     <t>위생관리</t>
   </si>
@@ -595,11 +597,340 @@
     <t>찬영SQL문</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>태훈sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>'파트',</t>
+  </si>
+  <si>
+    <t>'오픈',</t>
+  </si>
+  <si>
+    <t>null,</t>
+  </si>
+  <si>
+    <t>'yunyoung',</t>
+  </si>
+  <si>
+    <t>TO_DATE('2018-05-08','YYYY-MM-DD'),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY_TASKS_seq.nextval,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레몬청 만들기',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_DATE('2018-05-09','YYYY-MM-DD'),</t>
+  </si>
+  <si>
+    <t>TO_DATE('2018-05-10','YYYY-MM-DD'),</t>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>'마감'</t>
+  </si>
+  <si>
+    <t>'미들'</t>
+  </si>
+  <si>
+    <t>2,</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>4,</t>
+  </si>
+  <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>7,</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>9,</t>
+  </si>
+  <si>
+    <t>10,</t>
+  </si>
+  <si>
+    <t>11,</t>
+  </si>
+  <si>
+    <t>12,</t>
+  </si>
+  <si>
+    <t>13,</t>
+  </si>
+  <si>
+    <t>'yunseok',</t>
+  </si>
+  <si>
+    <t>'장윤석',</t>
+  </si>
+  <si>
+    <t>'주찬영',</t>
+  </si>
+  <si>
+    <t>'taehun',</t>
+  </si>
+  <si>
+    <t>'김태훈',</t>
+  </si>
+  <si>
+    <t>'yunjin',</t>
+  </si>
+  <si>
+    <t>'김연진',</t>
+  </si>
+  <si>
+    <t>'chanyoung',</t>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,</t>
+  </si>
+  <si>
+    <t>15,</t>
+  </si>
+  <si>
+    <t>17,</t>
+  </si>
+  <si>
+    <t>18,</t>
+  </si>
+  <si>
+    <t>19,</t>
+  </si>
+  <si>
+    <t>20,</t>
+  </si>
+  <si>
+    <t>21,</t>
+  </si>
+  <si>
+    <t>22,</t>
+  </si>
+  <si>
+    <t>24,</t>
+  </si>
+  <si>
+    <t>25,</t>
+  </si>
+  <si>
+    <t>26,</t>
+  </si>
+  <si>
+    <t>27,</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>29,</t>
+  </si>
+  <si>
+    <t>신메뉴 팝업 제작',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건증 갱신'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'개인',</t>
+  </si>
+  <si>
+    <t>1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, '레몬청 만들기', TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '파트', '오픈', 1, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '파트', '오픈', 2, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '개인', 'yunjin', 3, 'yunjin', '김연진', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '파트', '미들', 4, 'yunjin', '김연진', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '파트', '미들', 5, 'yunjin', '김연진', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ)
+ values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '개인', 'taehun', 6, 'taehun', '김태훈', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '파트', '마감', 7, 'taehun', '김태훈', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '파트', '마감', 8, 'taehun', '김태훈', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '개인', 'taehun', 9, 'taehun', '김태훈', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '파트', '오픈', 10, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '파트', '오픈', 11, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '파트', '오픈', 12, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '파트', '미들', 13, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '파트', '미들', 14, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '파트', '미들', 15, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, '보건증 갱신', TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '파트', '마감', 17, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '파트', '마감', 18, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '개인', ''chanyoung', 19, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '파트', '오픈', 20, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '파트', '오픈', 21, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '파트', '오픈', 22, 'taehun', '김태훈', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ)  
+values(DAILY_TASKS_seq.nextval, '신메뉴 팝업 제작', TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '개인', 'taehun', null, 'taehun', '김태훈', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '개인', 'chanyoung', 24, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '파트', '미들', 26, 'yunjin', '김연진', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '파트', '미들', 25, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '파트', '마감', 27, null, null, 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '파트', '마감', 28, null, null, 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '개인', 'yunjin', 29, null, null, 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily_tasks 데이터 추가용 쿼리문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,7 +956,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -642,13 +973,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,6 +1014,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,23 +1350,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" customWidth="1"/>
-    <col min="6" max="6" width="148.3984375" customWidth="1"/>
-    <col min="7" max="7" width="76.19921875" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="148.375" customWidth="1"/>
+    <col min="7" max="7" width="76.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="167.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="167.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1400,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1050,7 +1420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +1434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +1465,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1112,7 +1482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1126,7 +1496,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1143,7 +1513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1177,7 +1547,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -1192,7 +1562,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -1217,7 +1587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -1248,7 +1618,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1629,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -1267,7 +1637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1287,7 +1657,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>82</v>
@@ -1302,7 +1672,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1689,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>85</v>
       </c>
@@ -1333,7 +1703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +1720,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1364,7 +1734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1377,7 +1747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
         <v>91</v>
       </c>
@@ -1387,7 +1757,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1407,7 +1777,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -1421,7 +1791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1438,7 +1808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>47</v>
       </c>
@@ -1446,7 +1816,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1466,7 +1836,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -1480,7 +1850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1497,7 +1867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -1511,7 +1881,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -1528,7 +1898,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -1544,23 +1914,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1944,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1588,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1602,7 +1972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1630,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1644,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1658,7 +2028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1672,7 +2042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1686,7 +2056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -1700,7 +2070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -1714,7 +2084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +2098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1736,7 +2106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1750,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1764,7 +2134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -1772,7 +2142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +2150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -1794,7 +2164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -1808,7 +2178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1822,7 +2192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -1836,7 +2206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -1850,7 +2220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
@@ -1864,7 +2234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -1874,7 +2244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>91</v>
       </c>
@@ -1884,7 +2254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1898,7 +2268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1912,7 +2282,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -1926,7 +2296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -1934,7 +2304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -1948,7 +2318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1962,7 +2332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1976,7 +2346,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1990,7 +2360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2004,7 +2374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2012,11 +2382,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D35">
+  <autoFilter ref="A1:D35" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="기간"/>
@@ -2033,30 +2403,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>107</v>
       </c>
@@ -2091,8 +2463,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2129,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
@@ -2164,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
@@ -2199,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>118</v>
       </c>
@@ -2234,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
@@ -2269,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>118</v>
       </c>
@@ -2304,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
@@ -2339,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
@@ -2374,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
@@ -2409,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
@@ -2444,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>118</v>
       </c>
@@ -2479,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>118</v>
       </c>
@@ -2514,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>118</v>
       </c>
@@ -2549,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>118</v>
       </c>
@@ -2584,7 +2956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>118</v>
       </c>
@@ -2619,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>118</v>
       </c>
@@ -2654,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>118</v>
       </c>
@@ -2689,7 +3061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>118</v>
       </c>
@@ -2724,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>118</v>
       </c>
@@ -2759,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>118</v>
       </c>
@@ -2794,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>118</v>
       </c>
@@ -2829,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>118</v>
       </c>
@@ -2864,16 +3236,1251 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="G24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="G25" s="1"/>
-      <c r="I25" s="1"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAFB34E-2FEC-4B7C-B013-1E0F4A147F5F}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="182.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60B544A9-A7EC-4792-9834-9E6502985BC5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFBA9A-13EF-4A88-ABAC-2C75DAC37455}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="4530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15760" windowHeight="4530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="226">
   <si>
     <t>위생관리</t>
   </si>
@@ -507,14 +507,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>finisher_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finisher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>branch_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,10 +609,6 @@
     <t>'yunyoung',</t>
   </si>
   <si>
-    <t>TO_DATE('2018-05-08','YYYY-MM-DD'),</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAILY_TASKS_seq.nextval,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,12 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TO_DATE('2018-05-09','YYYY-MM-DD'),</t>
-  </si>
-  <si>
-    <t>TO_DATE('2018-05-10','YYYY-MM-DD'),</t>
-  </si>
-  <si>
     <t>1,</t>
   </si>
   <si>
@@ -769,161 +751,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, '레몬청 만들기', TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '파트', '오픈', 1, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '파트', '오픈', 2, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '개인', 'yunjin', 3, 'yunjin', '김연진', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '파트', '미들', 4, 'yunjin', '김연진', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '파트', '미들', 5, 'yunjin', '김연진', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ)
- values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '개인', 'taehun', 6, 'taehun', '김태훈', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '파트', '마감', 7, 'taehun', '김태훈', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 0, '파트', '마감', 8, 'taehun', '김태훈', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-08','YYYY-MM-DD'), 1, '개인', 'taehun', 9, 'taehun', '김태훈', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '파트', '오픈', 10, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '파트', '오픈', 11, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '파트', '오픈', 12, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '파트', '미들', 13, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '파트', '미들', 14, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '파트', '미들', 15, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, '보건증 갱신', TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '파트', '마감', 17, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 0, '파트', '마감', 18, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-09','YYYY-MM-DD'), 1, '개인', ''chanyoung', 19, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '파트', '오픈', 20, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '파트', '오픈', 21, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '파트', '오픈', 22, 'taehun', '김태훈', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ)  
-values(DAILY_TASKS_seq.nextval, '신메뉴 팝업 제작', TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '개인', 'taehun', null, 'taehun', '김태훈', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '개인', 'chanyoung', 24, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '파트', '미들', 26, 'yunjin', '김연진', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '파트', '미들', 25, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '파트', '마감', 27, null, null, 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 0, '파트', '마감', 28, null, null, 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, TO_DATE('2018-05-10','YYYY-MM-DD'), 1, '개인', 'yunjin', 29, null, null, 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>daily_tasks 데이터 추가용 쿼리문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석SQL문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/05/11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, '레몬청 만들기',  '2018/05/08', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '오픈', 1, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '개인', 'yunjin', 3, 'yunjin', '김연진', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '미들', 4, 'yunjin', '김연진', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '미들', 5, 'yunjin', '김연진', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ)
+ values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '개인', 'taehun', 6, 'taehun', '김태훈', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '마감', 7, 'taehun', '김태훈', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '마감', 8, 'taehun', '김태훈', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '개인', 'taehun', 9, 'taehun', '김태훈', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '오픈', 10, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '오픈', 11, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '오픈', 12, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '미들', 13, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '미들', 14, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '미들', 15, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, '보건증 갱신', '2018/05/09', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '마감', 17, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '마감', 18, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '개인', ''chanyoung', 19, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '오픈', 20, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '오픈', 21, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '오픈', 22, 'taehun', '김태훈', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ)  
+values(DAILY_TASKS_seq.nextval, '신메뉴 팝업 제작', '2018/05/10', 0, '개인', 'taehun', null, 'taehun', '김태훈', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '개인', 'chanyoung', 24, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '미들', 25, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '미들', 26, 'yunjin', '김연진', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '마감', 27, null, null, 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '마감', 28, null, null, 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '개인', 'yunjin', 29, null, null, 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>finisher_name_id</t>
+  </si>
+  <si>
+    <t>finisher_name</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '오픈', 2, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연진이 피카츄 생일케이크 사오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무태만 반성문 작성해오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,6 +1014,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1357,16 +1345,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="148.375" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="148.33203125" customWidth="1"/>
     <col min="7" max="7" width="76.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1383,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="167.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="167.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1400,7 +1388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1420,7 +1408,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -1434,7 +1422,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -1465,7 +1453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1482,7 +1470,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1501,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -1527,7 +1515,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1547,7 +1535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -1562,7 +1550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1579,7 +1567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -1587,7 +1575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1592,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -1618,7 +1606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1629,7 +1617,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -1637,7 +1625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1657,7 +1645,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>82</v>
@@ -1672,7 +1660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1677,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C22" s="3" t="s">
         <v>85</v>
       </c>
@@ -1703,7 +1691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1720,7 +1708,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1734,7 +1722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1747,7 +1735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C26" s="3" t="s">
         <v>91</v>
       </c>
@@ -1757,7 +1745,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1777,7 +1765,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -1791,7 +1779,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1808,7 +1796,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>47</v>
       </c>
@@ -1816,7 +1804,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1836,7 +1824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -1850,7 +1838,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1867,7 +1855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -1881,7 +1869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -1898,7 +1886,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -1915,22 +1903,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1944,7 +1931,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1958,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1972,7 +1959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1986,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2000,7 +1987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2014,7 +2001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2028,7 +2015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2042,7 +2029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2056,7 +2043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2070,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -2084,7 +2071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2098,7 +2085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2106,7 +2093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2120,7 +2107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2134,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2142,7 +2129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2150,7 +2137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -2164,7 +2151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -2178,7 +2165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -2192,7 +2179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -2206,7 +2193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -2220,7 +2207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
@@ -2234,7 +2221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -2244,7 +2231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>91</v>
       </c>
@@ -2254,7 +2241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2268,7 +2255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2282,7 +2269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2296,7 +2283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2304,7 +2291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -2318,7 +2305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2332,7 +2319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2346,7 +2333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2360,7 +2347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2374,7 +2361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2382,20 +2369,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D35" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="기간"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:D35">
-      <sortCondition ref="D1"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2404,31 +2381,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>107</v>
       </c>
@@ -2451,30 +2429,30 @@
         <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2483,33 +2461,33 @@
         <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H2" s="1">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2518,33 +2496,33 @@
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -2553,33 +2531,33 @@
         <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2594,62 +2572,62 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="H6" s="1">
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2664,27 +2642,27 @@
         <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2693,33 +2671,33 @@
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H8" s="1">
         <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2728,33 +2706,33 @@
         <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2763,33 +2741,33 @@
         <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H10" s="1">
         <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2798,33 +2776,33 @@
         <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H11" s="1">
         <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2833,33 +2811,33 @@
         <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H12" s="1">
         <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -2868,33 +2846,33 @@
         <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H13" s="1">
         <v>31</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2903,33 +2881,33 @@
         <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H14" s="1">
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2938,33 +2916,33 @@
         <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2973,33 +2951,33 @@
         <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -3014,62 +2992,62 @@
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="H18" s="1">
         <v>8</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3084,27 +3062,27 @@
         <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3113,33 +3091,33 @@
         <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H20" s="1">
         <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3148,33 +3126,33 @@
         <v>42</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H21" s="1">
         <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3183,33 +3161,33 @@
         <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" s="1">
         <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -3218,1092 +3196,1509 @@
         <v>42</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="13">
+        <v>43228</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="13">
+        <v>43228</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="G26" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="13">
+        <v>43228</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="13">
+        <v>43228</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="13">
+        <v>43228</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="13">
+        <v>43228</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="13">
+        <v>43228</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="13">
+        <v>43228</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="H32" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="13">
+        <v>43228</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B34" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="14">
+        <v>43228</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="13">
+        <v>43229</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="13">
+        <v>43229</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="13">
+        <v>43229</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="13">
+        <v>43229</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="H38" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="13">
+        <v>43229</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B40" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="13">
+        <v>43229</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B41" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="13">
+        <v>43229</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B42" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="13">
+        <v>43229</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="13">
+        <v>43229</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="14">
+        <v>43229</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="15">
+        <v>43230</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="H45" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B46" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="13">
+        <v>43230</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="13">
+        <v>43230</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B48" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="13">
+        <v>43230</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B49" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="13">
+        <v>43230</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B50" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="13">
+        <v>43230</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B51" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="13">
+        <v>43230</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I51" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="J51" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B52" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="C52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="13">
+        <v>43230</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B53" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="13">
+        <v>43230</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="14">
+        <v>43230</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="H54" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="J54" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K54" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H53" s="8" t="s">
+      <c r="L54" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="I53" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" s="1">
+        <v>17</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57" s="1">
+        <v>12</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="1">
+        <v>28</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="1">
+        <v>24</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="1">
+        <v>34</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H62" s="1">
+        <v>20</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H63" s="1">
+        <v>5</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" s="1">
+        <v>19</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" s="1">
+        <v>16</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="D77" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4311,171 +4706,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAFB34E-2FEC-4B7C-B013-1E0F4A147F5F}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="182.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B22" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B23" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B26" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B27" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B29" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B30" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEFBA9A-13EF-4A88-ABAC-2C75DAC37455}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F48EE-72FC-4BD0-A2DD-CF5EB2078874}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15760" windowHeight="4530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2384,7 +2384,7 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9F48EE-72FC-4BD0-A2DD-CF5EB2078874}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41B4FC6D-B152-4887-A8C3-3F5C40AB1A66}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15760" windowHeight="4530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="4530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -976,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1023,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,16 +1348,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="148.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="148.375" customWidth="1"/>
     <col min="7" max="7" width="76.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="167.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="167.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -1550,7 +1553,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1617,7 +1620,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>82</v>
@@ -1660,7 +1663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>85</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
         <v>91</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>47</v>
       </c>
@@ -1804,7 +1807,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -1869,7 +1872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -1909,15 +1912,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +1934,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2043,7 +2046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2057,7 +2060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2107,7 +2110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -2151,7 +2154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -2179,7 +2182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>91</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2269,7 +2272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2291,7 +2294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2347,7 +2350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
     </row>
   </sheetData>
@@ -2383,30 +2386,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>107</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>116</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>116</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>116</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>116</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>116</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>116</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>116</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>116</v>
       </c>
@@ -2829,42 +2832,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="9">
         <v>31</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>116</v>
       </c>
@@ -2899,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>116</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>116</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>116</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>116</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>116</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>116</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>116</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>116</v>
       </c>
@@ -3179,42 +3182,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="9">
         <v>0</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>136</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>142</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>142</v>
       </c>
@@ -3323,7 +3326,7 @@
       </c>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>142</v>
       </c>
@@ -3359,7 +3362,7 @@
       </c>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>142</v>
       </c>
@@ -3394,7 +3397,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>142</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>142</v>
       </c>
@@ -3464,7 +3467,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>142</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>142</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9" t="s">
         <v>142</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>142</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>142</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>142</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>142</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>142</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>142</v>
       </c>
@@ -3779,7 +3782,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>142</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>142</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>142</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="9" t="s">
         <v>142</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>142</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>142</v>
       </c>
@@ -3989,7 +3992,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>142</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>142</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>142</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>142</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>142</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>142</v>
       </c>
@@ -4199,7 +4202,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>142</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="9" t="s">
         <v>142</v>
       </c>
@@ -4269,12 +4272,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>189</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>116</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>116</v>
       </c>
@@ -4382,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>116</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>116</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
@@ -4592,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>116</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>116</v>
       </c>
@@ -4662,37 +4665,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D77" s="5"/>
     </row>
   </sheetData>
@@ -4706,21 +4709,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAFB34E-2FEC-4B7C-B013-1E0F4A147F5F}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="182.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -4728,147 +4731,147 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" ht="33" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>220</v>
       </c>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41B4FC6D-B152-4887-A8C3-3F5C40AB1A66}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4047D83-274E-4DFA-AE21-6E8E366ADFF5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15765" windowHeight="4530" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="236">
   <si>
     <t>위생관리</t>
   </si>
@@ -767,10 +767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, '레몬청 만들기',  '2018/05/08', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
   </si>
@@ -904,6 +900,39 @@
   <si>
     <t>근무태만 반성문 작성해오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김연진</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>개인</t>
+  </si>
+  <si>
+    <t>오픈</t>
+  </si>
+  <si>
+    <t>yunjin</t>
+  </si>
+  <si>
+    <t>미들</t>
+  </si>
+  <si>
+    <t>yunseok</t>
+  </si>
+  <si>
+    <t>장윤석</t>
+  </si>
+  <si>
+    <t>마감</t>
+  </si>
+  <si>
+    <t>taehun</t>
+  </si>
+  <si>
+    <t>김태훈</t>
   </si>
 </sst>
 </file>
@@ -1348,16 +1377,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="148.375" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="148.33203125" customWidth="1"/>
     <col min="7" max="7" width="76.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1374,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="167.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="167.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1391,7 +1420,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1440,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -1425,7 +1454,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1442,7 +1471,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -1456,7 +1485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1504,7 +1533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -1518,7 +1547,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1538,7 +1567,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -1553,7 +1582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1570,7 +1599,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -1578,7 +1607,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +1624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +1638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1620,7 +1649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -1628,7 +1657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1648,7 +1677,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>82</v>
@@ -1663,7 +1692,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1680,7 +1709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C22" s="3" t="s">
         <v>85</v>
       </c>
@@ -1694,7 +1723,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1711,7 +1740,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1725,7 +1754,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1738,7 +1767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C26" s="3" t="s">
         <v>91</v>
       </c>
@@ -1748,7 +1777,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1768,7 +1797,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -1782,7 +1811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1799,7 +1828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>47</v>
       </c>
@@ -1807,7 +1836,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1827,7 +1856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -1841,7 +1870,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1858,7 +1887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -1872,7 +1901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -1889,7 +1918,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -1908,19 +1937,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1934,7 +1963,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1948,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1976,7 +2005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1990,7 +2019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2004,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2018,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2032,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2046,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2060,7 +2089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -2074,7 +2103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2088,7 +2117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2096,7 +2125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2110,7 +2139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2124,7 +2153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2132,7 +2161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2140,7 +2169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -2154,7 +2183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -2168,7 +2197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -2182,7 +2211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -2196,7 +2225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -2210,7 +2239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
@@ -2224,7 +2253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -2234,7 +2263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>91</v>
       </c>
@@ -2244,7 +2273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2258,7 +2287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2272,7 +2301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2286,7 +2315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2294,7 +2323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -2308,7 +2337,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2322,7 +2351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2336,7 +2365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2350,7 +2379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2364,7 +2393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2372,7 +2401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
     </row>
   </sheetData>
@@ -2386,30 +2415,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>107</v>
       </c>
@@ -2432,10 +2461,10 @@
         <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>128</v>
@@ -2444,7 +2473,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
@@ -2482,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>116</v>
       </c>
@@ -2517,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
@@ -2552,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>116</v>
       </c>
@@ -2587,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
@@ -2622,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>116</v>
       </c>
@@ -2657,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>116</v>
       </c>
@@ -2692,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>116</v>
       </c>
@@ -2727,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>116</v>
       </c>
@@ -2762,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>116</v>
       </c>
@@ -2797,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>116</v>
       </c>
@@ -2832,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="9" t="s">
         <v>116</v>
       </c>
@@ -2867,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>116</v>
       </c>
@@ -2902,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>116</v>
       </c>
@@ -2937,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>116</v>
       </c>
@@ -2972,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>116</v>
       </c>
@@ -3007,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>116</v>
       </c>
@@ -3042,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>116</v>
       </c>
@@ -3077,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>116</v>
       </c>
@@ -3112,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>116</v>
       </c>
@@ -3147,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>116</v>
       </c>
@@ -3182,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="9" t="s">
         <v>116</v>
       </c>
@@ -3217,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>136</v>
       </c>
@@ -3255,7 +3284,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="s">
         <v>142</v>
       </c>
@@ -3290,7 +3319,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="s">
         <v>142</v>
       </c>
@@ -3326,7 +3355,7 @@
       </c>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="s">
         <v>142</v>
       </c>
@@ -3362,7 +3391,7 @@
       </c>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="s">
         <v>142</v>
       </c>
@@ -3397,7 +3426,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="s">
         <v>142</v>
       </c>
@@ -3432,7 +3461,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B31" s="8" t="s">
         <v>142</v>
       </c>
@@ -3467,7 +3496,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B32" s="8" t="s">
         <v>142</v>
       </c>
@@ -3502,7 +3531,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="8" t="s">
         <v>142</v>
       </c>
@@ -3537,7 +3566,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="9" t="s">
         <v>142</v>
       </c>
@@ -3572,7 +3601,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="8" t="s">
         <v>142</v>
       </c>
@@ -3607,7 +3636,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="8" t="s">
         <v>142</v>
       </c>
@@ -3642,7 +3671,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="8" t="s">
         <v>142</v>
       </c>
@@ -3677,7 +3706,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="8" t="s">
         <v>142</v>
       </c>
@@ -3712,7 +3741,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="8" t="s">
         <v>142</v>
       </c>
@@ -3747,7 +3776,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B40" s="8" t="s">
         <v>142</v>
       </c>
@@ -3782,7 +3811,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B41" s="8" t="s">
         <v>142</v>
       </c>
@@ -3817,7 +3846,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="8" t="s">
         <v>142</v>
       </c>
@@ -3852,7 +3881,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="8" t="s">
         <v>142</v>
       </c>
@@ -3887,7 +3916,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="9" t="s">
         <v>142</v>
       </c>
@@ -3922,7 +3951,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B45" s="7" t="s">
         <v>142</v>
       </c>
@@ -3957,7 +3986,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="8" t="s">
         <v>142</v>
       </c>
@@ -3992,7 +4021,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B47" s="8" t="s">
         <v>142</v>
       </c>
@@ -4027,7 +4056,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B48" s="8" t="s">
         <v>142</v>
       </c>
@@ -4062,7 +4091,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B49" s="8" t="s">
         <v>142</v>
       </c>
@@ -4097,7 +4126,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B50" s="8" t="s">
         <v>142</v>
       </c>
@@ -4132,7 +4161,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B51" s="8" t="s">
         <v>142</v>
       </c>
@@ -4167,7 +4196,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B52" s="8" t="s">
         <v>142</v>
       </c>
@@ -4202,7 +4231,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B53" s="8" t="s">
         <v>142</v>
       </c>
@@ -4237,7 +4266,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B54" s="9" t="s">
         <v>142</v>
       </c>
@@ -4272,12 +4301,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>189</v>
       </c>
@@ -4294,19 +4323,19 @@
         <v>0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="H56" s="1">
         <v>17</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>121</v>
@@ -4315,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>116</v>
       </c>
@@ -4329,19 +4358,19 @@
         <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="H57" s="1">
         <v>12</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>121</v>
@@ -4350,12 +4379,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>190</v>
@@ -4364,19 +4393,19 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H58" s="1">
-        <v>28</v>
+        <v>227</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>121</v>
@@ -4385,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
@@ -4399,19 +4428,19 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="H59" s="1">
         <v>24</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>121</v>
@@ -4420,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
@@ -4434,19 +4463,19 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>191</v>
+        <v>230</v>
+      </c>
+      <c r="H60" s="1">
+        <v>21</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>121</v>
@@ -4455,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
@@ -4469,19 +4498,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="H61" s="1">
         <v>34</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>121</v>
@@ -4490,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>116</v>
       </c>
@@ -4504,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>43</v>
+        <v>230</v>
       </c>
       <c r="H62" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>121</v>
@@ -4525,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>116</v>
       </c>
@@ -4539,19 +4568,19 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="H63" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>121</v>
@@ -4560,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
@@ -4574,19 +4603,19 @@
         <v>0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="H64" s="1">
         <v>19</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>121</v>
@@ -4595,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>116</v>
       </c>
@@ -4609,19 +4638,19 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="H65" s="1">
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>121</v>
@@ -4630,12 +4659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>190</v>
@@ -4644,19 +4673,19 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>121</v>
@@ -4665,37 +4694,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D77" s="5"/>
     </row>
   </sheetData>
@@ -4709,171 +4738,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAFB34E-2FEC-4B7C-B013-1E0F4A147F5F}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="182.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B15" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B22" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B23" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B26" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B27" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B28" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B29" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B30" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="2:2" ht="34" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4047D83-274E-4DFA-AE21-6E8E366ADFF5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC62F506-1145-4814-B533-2FCA158FF74E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,172 +767,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>연진이 피카츄 생일케이크 사오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무태만 반성문 작성해오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김연진</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>개인</t>
+  </si>
+  <si>
+    <t>오픈</t>
+  </si>
+  <si>
+    <t>yunjin</t>
+  </si>
+  <si>
+    <t>미들</t>
+  </si>
+  <si>
+    <t>yunseok</t>
+  </si>
+  <si>
+    <t>장윤석</t>
+  </si>
+  <si>
+    <t>마감</t>
+  </si>
+  <si>
+    <t>taehun</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>finisher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finisher_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, '레몬청 만들기',  '2018/05/08', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '오픈', 1, 'yunseok', '장윤석', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '오픈', 2, 'yunseok', '장윤석', 'yunyoung', 1)</t>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '개인', 'yunjin', 3, 'yunjin', '김연진', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '미들', 4, 'yunjin', '김연진', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '미들', 5, 'yunjin', '김연진', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ)
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ)
  values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '개인', 'taehun', 6, 'taehun', '김태훈', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '마감', 7, 'taehun', '김태훈', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '마감', 8, 'taehun', '김태훈', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '개인', 'taehun', 9, 'taehun', '김태훈', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '오픈', 10, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '오픈', 11, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '오픈', 12, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '미들', 13, 'yunseok', '장윤석', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '미들', 14, 'yunseok', '장윤석', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '미들', 15, 'yunseok', '장윤석', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, '보건증 갱신', '2018/05/09', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '마감', 17, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '마감', 18, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '개인', ''chanyoung', 19, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '오픈', 20, 'yunseok', '장윤석', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '오픈', 21, 'yunseok', '장윤석', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '오픈', 22, 'taehun', '김태훈', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ)  
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ)  
 values(DAILY_TASKS_seq.nextval, '신메뉴 팝업 제작', '2018/05/10', 0, '개인', 'taehun', null, 'taehun', '김태훈', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '개인', 'chanyoung', 24, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '미들', 25, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '미들', 26, 'yunjin', '김연진', 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '마감', 27, null, null, 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '마감', 28, null, null, 'yunyoung', 1)</t>
   </si>
   <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
 values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '개인', 'yunjin', 29, null, null, 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>finisher_name_id</t>
-  </si>
-  <si>
-    <t>finisher_name</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_NAME_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '오픈', 2, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연진이 피카츄 생일케이크 사오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근무태만 반성문 작성해오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김연진</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>개인</t>
-  </si>
-  <si>
-    <t>오픈</t>
-  </si>
-  <si>
-    <t>yunjin</t>
-  </si>
-  <si>
-    <t>미들</t>
-  </si>
-  <si>
-    <t>yunseok</t>
-  </si>
-  <si>
-    <t>장윤석</t>
-  </si>
-  <si>
-    <t>마감</t>
-  </si>
-  <si>
-    <t>taehun</t>
-  </si>
-  <si>
-    <t>김태훈</t>
   </si>
 </sst>
 </file>
@@ -2415,9 +2416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2461,10 +2462,10 @@
         <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>128</v>
@@ -4326,16 +4327,16 @@
         <v>54</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H56" s="1">
         <v>17</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>121</v>
@@ -4361,16 +4362,16 @@
         <v>54</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H57" s="1">
         <v>12</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>121</v>
@@ -4384,7 +4385,7 @@
         <v>116</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>190</v>
@@ -4396,16 +4397,16 @@
         <v>54</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>121</v>
@@ -4431,16 +4432,16 @@
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="H59" s="1">
         <v>24</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>121</v>
@@ -4463,19 +4464,19 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="H60" s="1">
         <v>21</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>121</v>
@@ -4501,16 +4502,16 @@
         <v>54</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="H61" s="1">
         <v>34</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>121</v>
@@ -4536,16 +4537,16 @@
         <v>54</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="H62" s="1">
         <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>121</v>
@@ -4571,16 +4572,16 @@
         <v>54</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H63" s="1">
         <v>21</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>121</v>
@@ -4606,16 +4607,16 @@
         <v>54</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H64" s="1">
         <v>19</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>121</v>
@@ -4641,16 +4642,16 @@
         <v>54</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="H65" s="1">
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>121</v>
@@ -4664,7 +4665,7 @@
         <v>116</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>190</v>
@@ -4676,16 +4677,16 @@
         <v>54</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>121</v>
@@ -4738,7 +4739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAFB34E-2FEC-4B7C-B013-1E0F4A147F5F}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -4757,152 +4758,152 @@
         <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B22" s="3" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B24" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B26" s="3" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B29" s="3" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="34" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC62F506-1145-4814-B533-2FCA158FF74E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EC2EC9D-DAA9-4967-81ED-9617ADB52A2D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="232">
   <si>
     <t>위생관리</t>
   </si>
@@ -519,10 +519,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/05/06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yunjin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,204 +558,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>주찬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장윤석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬영SQL문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+  </si>
+  <si>
+    <t>'파트',</t>
+  </si>
+  <si>
+    <t>null,</t>
+  </si>
+  <si>
+    <t>'yunyoung',</t>
+  </si>
+  <si>
+    <t>DAILY_TASKS_seq.nextval,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레몬청 만들기',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+  </si>
+  <si>
+    <t>신메뉴 팝업 제작',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건증 갱신'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'개인',</t>
+  </si>
+  <si>
+    <t>1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily_tasks 데이터 추가용 쿼리문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석SQL문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연진이 피카츄 생일케이크 사오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무태만 반성문 작성해오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주찬영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장윤석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>오픈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미들</t>
   </si>
   <si>
     <t>마감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찬영SQL문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태훈sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,</t>
-  </si>
-  <si>
-    <t>'파트',</t>
-  </si>
-  <si>
-    <t>'오픈',</t>
-  </si>
-  <si>
-    <t>null,</t>
-  </si>
-  <si>
-    <t>'yunyoung',</t>
-  </si>
-  <si>
-    <t>DAILY_TASKS_seq.nextval,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레몬청 만들기',</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>'마감'</t>
-  </si>
-  <si>
-    <t>'미들'</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>3,</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>6,</t>
-  </si>
-  <si>
-    <t>7,</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>9,</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
-    <t>12,</t>
-  </si>
-  <si>
-    <t>13,</t>
-  </si>
-  <si>
-    <t>'yunseok',</t>
-  </si>
-  <si>
-    <t>'장윤석',</t>
-  </si>
-  <si>
-    <t>'주찬영',</t>
-  </si>
-  <si>
-    <t>'taehun',</t>
-  </si>
-  <si>
-    <t>'김태훈',</t>
-  </si>
-  <si>
-    <t>'yunjin',</t>
-  </si>
-  <si>
-    <t>'김연진',</t>
-  </si>
-  <si>
-    <t>'chanyoung',</t>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,</t>
-  </si>
-  <si>
-    <t>15,</t>
-  </si>
-  <si>
-    <t>17,</t>
-  </si>
-  <si>
-    <t>18,</t>
-  </si>
-  <si>
-    <t>19,</t>
-  </si>
-  <si>
-    <t>20,</t>
-  </si>
-  <si>
-    <t>21,</t>
-  </si>
-  <si>
-    <t>22,</t>
-  </si>
-  <si>
-    <t>24,</t>
-  </si>
-  <si>
-    <t>25,</t>
-  </si>
-  <si>
-    <t>26,</t>
-  </si>
-  <si>
-    <t>27,</t>
-  </si>
-  <si>
-    <t>28,</t>
-  </si>
-  <si>
-    <t>29,</t>
-  </si>
-  <si>
-    <t>신메뉴 팝업 제작',</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보건증 갱신'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'개인',</t>
-  </si>
-  <si>
-    <t>1);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daily_tasks 데이터 추가용 쿼리문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤석SQL문</t>
+  </si>
+  <si>
+    <t>finisher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chanyoung</t>
+  </si>
+  <si>
+    <t>파트',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태훈SQL문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/05/08</t>
+  </si>
+  <si>
+    <t>2018/05/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/05/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -767,180 +694,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연진이 피카츄 생일케이크 사오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근무태만 반성문 작성해오기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김연진</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>개인</t>
-  </si>
-  <si>
-    <t>오픈</t>
-  </si>
-  <si>
-    <t>yunjin</t>
-  </si>
-  <si>
-    <t>미들</t>
-  </si>
-  <si>
-    <t>yunseok</t>
-  </si>
-  <si>
-    <t>장윤석</t>
-  </si>
-  <si>
-    <t>마감</t>
-  </si>
-  <si>
-    <t>taehun</t>
-  </si>
-  <si>
-    <t>김태훈</t>
-  </si>
-  <si>
-    <t>finisher_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finisher_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, '레몬청 만들기',  '2018/05/08', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '오픈', 1, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '오픈', 2, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '개인', 'yunjin', 3, 'yunjin', '김연진', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '미들', 4, 'yunjin', '김연진', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '미들', 5, 'yunjin', '김연진', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ)
- values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '개인', 'taehun', 6, 'taehun', '김태훈', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '마감', 7, 'taehun', '김태훈', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '마감', 8, 'taehun', '김태훈', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '개인', 'taehun', 9, 'taehun', '김태훈', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '오픈', 10, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '오픈', 11, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '오픈', 12, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '미들', 13, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '미들', 14, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '미들', 15, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, '보건증 갱신', '2018/05/09', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '마감', 17, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '마감', 18, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '개인', ''chanyoung', 19, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '오픈', 20, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '오픈', 21, 'yunseok', '장윤석', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '오픈', 22, 'taehun', '김태훈', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ)  
-values(DAILY_TASKS_seq.nextval, '신메뉴 팝업 제작', '2018/05/10', 0, '개인', 'taehun', null, 'taehun', '김태훈', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '개인', 'chanyoung', 24, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '미들', 25, 'chanyoung', '주찬영', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '미들', 26, 'yunjin', '김연진', 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '마감', 27, null, null, 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '마감', 28, null, null, 'yunyoung', 1)</t>
-  </si>
-  <si>
-    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) 
-values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '개인', 'yunjin', 29, null, null, 'yunyoung', 1)</t>
+    <t>2018/05/09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into daily_tasks </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ)</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '오픈', 12, 'yunjin', '김연진', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '오픈', 16, 'yunjin', '김연진', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '미들', 1, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '미들', 3, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '파트', '마감', 23, 'taehun', '김태훈', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '마감', 32, 'taehun', '김태훈', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 1, '개인', 'taehun', null, 'taehun', '김태훈', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '오픈', 17, 'yunjin', '김연진', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '오픈', 30, 'yunjin', '김연진', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '오픈', 33, 'yunjin', '김연진', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '미들', 26, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '미들', 9, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, '보건증 갱신', '2018/05/09', 0, '개인', 'yunseok', null, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '파트', '마감', 22, 'taehun', '김태훈', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 0, '파트', '마감', 25, 'taehun', '김태훈', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '오픈', 24, 'yunjin', '김연진', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '오픈', 33, 'yunjin', '김연진', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '오픈', 8, 'yunjin', '김연진', 'yunyoung', 1);</t>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '미들', 1, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '미들', 3, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '미들', 13, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '파트', '마감', 14, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 0, '파트', '마감', 19, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/10', 1, '개인', 'taehun', null, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 0, '파트', '오픈', 17, 'yunjin', '김연진', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 0, '파트', '오픈', 1, 'yunjin', '김연진', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 1, '파트', '오픈', 3, 'yunjin', '김연진', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 0, '파트', '미들', 11, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 1, '개인', 'yunseok', 7, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 0, '파트', '미들', 29, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 0, '파트', '마감', 5, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 1, '파트', '마감', 10, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 0, '파트', '마감', 19, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 0, '파트', '마감', 22, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 0, '파트', '마감', 25, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/06', 0, '파트', '마감', 31, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/07', 0, '파트', '오픈', 17, 'yunjin', '김연진', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/07', 0, '파트', '오픈', 2, 'yunjin', '김연진', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/07', 1, '파트', '오픈', 4, 'yunjin', '김연진', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/07', 0, '파트', '미들', 11, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/07', 1, '개인', 'yunseok', 8, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/07', 0, '파트', '미들', 32, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/07', 0, '파트', '마감', 6, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/07', 0, '파트', '마감', 13, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, null, '2018/05/07', 1, '파트', '마감', 20, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (DAILY_TASKS_SEQ, INPUT_TASK, ASSIGN_DATE, IMPORTANCE, ASSIGN_TYPE, ASSIGN_DETAIL, MANUAL_TASKS_SEQ, FINISHER_ID, FINISHER_NAME, ASSIGNER_ID, BRANCH_SEQ) values(daily_tasks_seq.nextval, '파라솔 상태 점검', '2018/05/07', 0, '파트', '마감', null, 'taehun', '김태훈', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, null,  '2018/05/11', 0, '파트', '오픈', 17, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, null,  '2018/05/11', 0, '파트', '오픈', 12, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, '연진이 피카츄 생일케이크 사오기',  '2018/05/11', 1, '개인', 'yunjin', null, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, null,  '2018/05/11', 0, '파트', '오픈', 24, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, null,  '2018/05/11', 1, '파트', '미들', 21, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, null,  '2018/05/11', 0, '파트', '미들', 34, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, null,  '2018/05/11', 0, '파트', '미들', 15, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, null,  '2018/05/11', 1, '파트', '마감', 21, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, null,  '2018/05/11', 0, '파트', '마감', 19, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, null,  '2018/05/11', 0, '파트', '마감', 16, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into daily_tasks (daily_tasks_seq, input_task, assign_date, importance, assign_type, assign_detail, manual_tasks_seq, finisher_id, finisher_name, assigner_id, branch_seq) values(daily_tasks_seq.nextval, '근무태만 반성문 작성해오기',  '2018/05/11', 1, '개인', 'taehun', null, null, null, 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, '신메뉴 팝업 제작', '2018/05/10', 1, '개인', 'yunjin', null, 'yunjin', '김연진', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '개인', 'yunjin', 34, 'yunjin', '김연진', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/08', 0, '파트', '미들', 17, 'yunseok', '장윤석', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, null, '2018/05/09', 1, '개인', 'chanyoung', null, 'chanyoung', '주찬영', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>values(DAILY_TASKS_seq.nextval, '레몬청 만들기', '2018/05/08', 0, '개인', 'chanyoung', null, 'chanyoung', '주찬영', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +961,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -965,7 +978,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -985,15 +998,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1006,7 +1010,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,35 +1032,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,16 +1388,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="148.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="148.375" customWidth="1"/>
     <col min="7" max="7" width="76.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="167.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="167.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1421,7 +1431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -1455,7 +1465,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1472,7 +1482,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -1486,7 +1496,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -1503,7 +1513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -1517,7 +1527,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1534,7 +1544,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -1548,7 +1558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1568,7 +1578,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -1583,7 +1593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -1608,7 +1618,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -1625,7 +1635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -1639,7 +1649,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1650,7 +1660,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>82</v>
@@ -1693,7 +1703,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>85</v>
       </c>
@@ -1724,7 +1734,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -1741,7 +1751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1755,7 +1765,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -1768,7 +1778,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
         <v>91</v>
       </c>
@@ -1778,7 +1788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1798,7 +1808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -1812,7 +1822,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1839,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>47</v>
       </c>
@@ -1837,7 +1847,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1857,7 +1867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -1871,7 +1881,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -1888,7 +1898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -1902,7 +1912,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -1919,7 +1929,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>103</v>
       </c>
@@ -1942,15 +1952,15 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1974,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1978,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1992,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2020,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2034,7 +2044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2062,7 +2072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2076,7 +2086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -2090,7 +2100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
@@ -2104,7 +2114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2118,7 +2128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2126,7 +2136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2140,7 +2150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2154,7 +2164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -2162,7 +2172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2170,7 +2180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -2184,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -2198,7 +2208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -2212,7 +2222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -2226,7 +2236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -2240,7 +2250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>88</v>
       </c>
@@ -2254,7 +2264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -2264,7 +2274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>91</v>
       </c>
@@ -2274,7 +2284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2288,7 +2298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -2338,7 +2348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2352,7 +2362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2366,7 +2376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2380,7 +2390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2394,7 +2404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2402,7 +2412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
     </row>
   </sheetData>
@@ -2414,32 +2424,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
+    <col min="15" max="15" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>107</v>
       </c>
@@ -2462,21 +2472,21 @@
         <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>116</v>
@@ -2484,8 +2494,8 @@
       <c r="C2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>118</v>
+      <c r="D2" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2494,33 +2504,33 @@
         <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>118</v>
+      <c r="D3" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2529,33 +2539,33 @@
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>118</v>
+      <c r="D4" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -2564,33 +2574,33 @@
         <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>118</v>
+      <c r="D5" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2605,62 +2615,62 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>118</v>
+      <c r="D6" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="H6" s="1">
         <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>118</v>
+      <c r="D7" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2675,27 +2685,27 @@
         <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>118</v>
+      <c r="D8" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2704,33 +2714,33 @@
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1">
         <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>118</v>
+      <c r="D9" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2739,33 +2749,33 @@
         <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>118</v>
+      <c r="D10" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2774,33 +2784,33 @@
         <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1">
         <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>118</v>
+      <c r="D11" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2809,33 +2819,33 @@
         <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1">
         <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>118</v>
+      <c r="D12" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2844,68 +2854,68 @@
         <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1">
         <v>25</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="G13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="8">
         <v>31</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="I13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>122</v>
+      <c r="D14" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2914,33 +2924,33 @@
         <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1">
         <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>122</v>
+      <c r="D15" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2949,33 +2959,33 @@
         <v>42</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>122</v>
+      <c r="D16" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2984,33 +2994,33 @@
         <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1">
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>122</v>
+      <c r="D17" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -3025,62 +3035,62 @@
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>122</v>
+      <c r="D18" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="1">
         <v>8</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>122</v>
+      <c r="D19" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3095,27 +3105,27 @@
         <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>122</v>
+      <c r="D20" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3124,33 +3134,33 @@
         <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H20" s="1">
         <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>122</v>
+      <c r="D21" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3159,33 +3169,33 @@
         <v>42</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1">
         <v>13</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>122</v>
+      <c r="D22" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3194,1158 +3204,1225 @@
         <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1">
         <v>20</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="9">
+      <c r="D23" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="D24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="7">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J23" s="9" t="s">
+      <c r="K26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="9">
+      <c r="F27" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="I27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="11" t="s">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="7">
+        <v>17</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="7">
+        <v>23</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="7">
+        <v>32</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="7">
+        <v>17</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="7">
+        <v>30</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="7">
+        <v>33</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="7">
+        <v>34</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="7">
+        <v>26</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="7">
+        <v>9</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="7">
+        <v>22</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="8">
+        <v>25</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="7">
+        <v>24</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="7">
+        <v>33</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="7">
+        <v>8</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B48" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="13">
-        <v>43228</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J25" s="8" t="s">
+      <c r="D49" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="7">
+        <v>3</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="7">
+        <v>13</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="7">
+        <v>14</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" s="7">
+        <v>19</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B26" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="13">
-        <v>43228</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="1">
+        <v>17</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B27" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="13">
-        <v>43228</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B28" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="13">
-        <v>43228</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="13">
-        <v>43228</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B30" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="13">
-        <v>43228</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="13">
-        <v>43228</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B32" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="13">
-        <v>43228</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B33" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="13">
-        <v>43228</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="14">
-        <v>43228</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B35" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="13">
-        <v>43229</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B36" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="13">
-        <v>43229</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B37" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="13">
-        <v>43229</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B38" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="13">
-        <v>43229</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B39" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="13">
-        <v>43229</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B40" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="13">
-        <v>43229</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B41" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" s="13">
-        <v>43229</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B42" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="13">
-        <v>43229</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B43" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="13">
-        <v>43229</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="14">
-        <v>43229</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K44" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B45" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="15">
-        <v>43230</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B46" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="13">
-        <v>43230</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B47" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="13">
-        <v>43230</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B48" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="13">
-        <v>43230</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K48" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B49" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="13">
-        <v>43230</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B50" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D50" s="13">
-        <v>43230</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B51" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="13">
-        <v>43230</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="J51" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B52" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="13">
-        <v>43230</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B53" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="13">
-        <v>43230</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="14">
-        <v>43230</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="L54" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="H55" s="1">
+        <v>12</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" s="1">
-        <v>17</v>
+        <v>123</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>116</v>
       </c>
@@ -4353,7 +4430,7 @@
         <v>117</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -4362,60 +4439,60 @@
         <v>54</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="H57" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>194</v>
+        <v>151</v>
+      </c>
+      <c r="H58" s="1">
+        <v>21</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
@@ -4423,7 +4500,7 @@
         <v>117</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -4432,25 +4509,25 @@
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="H59" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L59" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
@@ -4458,34 +4535,34 @@
         <v>117</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="H60" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
@@ -4493,34 +4570,34 @@
         <v>117</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="H61" s="1">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>116</v>
       </c>
@@ -4528,7 +4605,7 @@
         <v>117</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -4537,25 +4614,25 @@
         <v>54</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
       <c r="H62" s="1">
         <v>19</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>116</v>
       </c>
@@ -4563,170 +4640,100 @@
         <v>117</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="H63" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H64" s="1">
-        <v>19</v>
+        <v>126</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B65" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H65" s="1">
-        <v>16</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B66" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L66" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="5"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="5"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="5"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="D77" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4737,173 +4744,678 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAFB34E-2FEC-4B7C-B013-1E0F4A147F5F}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="182.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="235.5" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B4" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B7" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B8" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B9" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B10" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B11" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B12" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B14" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B15" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B16" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B17" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B18" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B19" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B20" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B21" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B22" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B23" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B24" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B25" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B26" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B27" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B28" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B29" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B30" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="34" x14ac:dyDescent="0.45">
-      <c r="B31" s="3" t="s">
-        <v>235</v>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EC2EC9D-DAA9-4967-81ED-9617ADB52A2D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3FA3E3CC-BA14-4B39-B44B-727660369C0C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -674,10 +674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/05/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>finisher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -938,6 +934,10 @@
   </si>
   <si>
     <t>values(DAILY_TASKS_seq.nextval, '레몬청 만들기', '2018/05/08', 0, '개인', 'chanyoung', null, 'chanyoung', '주찬영', 'yunyoung', 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/05/06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2426,9 +2426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2475,7 +2475,7 @@
         <v>153</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>127</v>
@@ -2495,7 +2495,7 @@
         <v>117</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>117</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>117</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -2600,7 +2600,7 @@
         <v>117</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>117</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -2670,7 +2670,7 @@
         <v>117</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -2705,7 +2705,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>117</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -2775,7 +2775,7 @@
         <v>117</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>117</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>117</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>117</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
       <c r="E13" s="8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>117</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>117</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>117</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -3020,7 +3020,7 @@
         <v>117</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>117</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -3090,7 +3090,7 @@
         <v>117</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>117</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>117</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>117</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -3231,7 +3231,7 @@
         <v>122</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="E23" s="8">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>134</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>138</v>
@@ -3304,7 +3304,7 @@
         <v>134</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>132</v>
@@ -3340,7 +3340,7 @@
         <v>134</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>138</v>
@@ -3376,7 +3376,7 @@
         <v>134</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>132</v>
@@ -3411,7 +3411,7 @@
         <v>134</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>138</v>
@@ -3446,7 +3446,7 @@
         <v>134</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>132</v>
@@ -3481,7 +3481,7 @@
         <v>137</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>132</v>
@@ -3516,7 +3516,7 @@
         <v>134</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>138</v>
@@ -3551,7 +3551,7 @@
         <v>134</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>132</v>
@@ -3586,7 +3586,7 @@
         <v>134</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>138</v>
@@ -3621,7 +3621,7 @@
         <v>134</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>132</v>
@@ -3656,7 +3656,7 @@
         <v>134</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>138</v>
@@ -3691,7 +3691,7 @@
         <v>134</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>132</v>
@@ -3726,7 +3726,7 @@
         <v>134</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>138</v>
@@ -3761,7 +3761,7 @@
         <v>134</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>132</v>
@@ -3796,7 +3796,7 @@
         <v>134</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>138</v>
@@ -3831,7 +3831,7 @@
         <v>140</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>132</v>
@@ -3866,7 +3866,7 @@
         <v>134</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>138</v>
@@ -3901,7 +3901,7 @@
         <v>134</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>138</v>
@@ -3936,7 +3936,7 @@
         <v>134</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>132</v>
@@ -3971,7 +3971,7 @@
         <v>134</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>132</v>
@@ -4006,7 +4006,7 @@
         <v>134</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>138</v>
@@ -4041,7 +4041,7 @@
         <v>134</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>132</v>
@@ -4076,7 +4076,7 @@
         <v>139</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>138</v>
@@ -4111,7 +4111,7 @@
         <v>134</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>132</v>
@@ -4146,7 +4146,7 @@
         <v>143</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>138</v>
@@ -4181,7 +4181,7 @@
         <v>134</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>132</v>
@@ -4216,7 +4216,7 @@
         <v>134</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>138</v>
@@ -4251,7 +4251,7 @@
         <v>134</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>132</v>
@@ -4287,7 +4287,7 @@
         <v>134</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>138</v>
@@ -4324,8 +4324,8 @@
       <c r="C54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>160</v>
+      <c r="D54" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -4359,8 +4359,8 @@
       <c r="C55" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>160</v>
+      <c r="D55" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -4394,8 +4394,8 @@
       <c r="C56" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>160</v>
+      <c r="D56" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E56" s="1">
         <v>1</v>
@@ -4429,8 +4429,8 @@
       <c r="C57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>160</v>
+      <c r="D57" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -4464,8 +4464,8 @@
       <c r="C58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>160</v>
+      <c r="D58" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -4499,8 +4499,8 @@
       <c r="C59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>160</v>
+      <c r="D59" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E59" s="1">
         <v>0</v>
@@ -4534,8 +4534,8 @@
       <c r="C60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>160</v>
+      <c r="D60" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -4569,8 +4569,8 @@
       <c r="C61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>160</v>
+      <c r="D61" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E61" s="1">
         <v>1</v>
@@ -4604,8 +4604,8 @@
       <c r="C62" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>160</v>
+      <c r="D62" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -4639,8 +4639,8 @@
       <c r="C63" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>160</v>
+      <c r="D63" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E63" s="1">
         <v>0</v>
@@ -4674,8 +4674,8 @@
       <c r="C64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>160</v>
+      <c r="D64" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="E64" s="1">
         <v>1</v>
@@ -4746,8 +4746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAFB34E-2FEC-4B7C-B013-1E0F4A147F5F}">
   <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4765,204 +4765,204 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
       <c r="B10" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="16"/>
       <c r="B16" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="16"/>
       <c r="B19" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15"/>
       <c r="B35" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4970,452 +4970,452 @@
         <v>144</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3FA3E3CC-BA14-4B39-B44B-727660369C0C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2CF414B-7AEC-4A28-9571-F8867A0EE604}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
     <sheet name="일일업무" sheetId="2" r:id="rId2"/>
-    <sheet name="DB Insert용" sheetId="3" r:id="rId3"/>
+    <sheet name="일일업무 DB Insert용" sheetId="3" r:id="rId3"/>
     <sheet name="daily_tasks_query" sheetId="5" r:id="rId4"/>
+    <sheet name="직원인증정보 DB insert용" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무!$A$1:$D$35</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="323">
   <si>
     <t>위생관리</t>
   </si>
@@ -938,6 +939,320 @@
   </si>
   <si>
     <t>2018/05/06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resume_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연진SQL문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunjin</t>
+  </si>
+  <si>
+    <t>yunseok</t>
+  </si>
+  <si>
+    <t>taehun</t>
+  </si>
+  <si>
+    <t>jaesun</t>
+  </si>
+  <si>
+    <t>yejee</t>
+  </si>
+  <si>
+    <t>hyesoo</t>
+  </si>
+  <si>
+    <t>jaemin</t>
+  </si>
+  <si>
+    <t>eunkyul</t>
+  </si>
+  <si>
+    <t>sumin</t>
+  </si>
+  <si>
+    <t>seungkyun</t>
+  </si>
+  <si>
+    <t>hyungjun</t>
+  </si>
+  <si>
+    <t>우리은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC제일은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH농협은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외환은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004427204842</t>
+  </si>
+  <si>
+    <t>110101764526</t>
+  </si>
+  <si>
+    <t>10485675482</t>
+  </si>
+  <si>
+    <t>52546278031224</t>
+  </si>
+  <si>
+    <t>110468824651</t>
+  </si>
+  <si>
+    <t>336511098371</t>
+  </si>
+  <si>
+    <t>113478515465</t>
+  </si>
+  <si>
+    <t>98850424756733</t>
+  </si>
+  <si>
+    <t>42578500105462</t>
+  </si>
+  <si>
+    <t>1002546825713</t>
+  </si>
+  <si>
+    <t>chulsoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeonghee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heeeun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jonghyuk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunjin_resume.hwp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heeeun_resume.hwp</t>
+  </si>
+  <si>
+    <t>chanyoung_resume.hwp</t>
+  </si>
+  <si>
+    <t>jonghyuk_resume.hwp</t>
+  </si>
+  <si>
+    <t>yunseok_resume.hwp</t>
+  </si>
+  <si>
+    <t>taehun_resume.hwp</t>
+  </si>
+  <si>
+    <t>jaesun_resume.hwp</t>
+  </si>
+  <si>
+    <t>seungkyun_resume.hwp</t>
+  </si>
+  <si>
+    <t>hyungjun_resume.hwp</t>
+  </si>
+  <si>
+    <t>yeonghee_resume.hwp</t>
+  </si>
+  <si>
+    <t>minji_resume.hwp</t>
+  </si>
+  <si>
+    <t>yunjin_bank.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunjin_health.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heeeun_health.jpg</t>
+  </si>
+  <si>
+    <t>chanyoung_health.jpg</t>
+  </si>
+  <si>
+    <t>jonghyuk_health.jpg</t>
+  </si>
+  <si>
+    <t>yunseok_health.jpg</t>
+  </si>
+  <si>
+    <t>taehun_health.jpg</t>
+  </si>
+  <si>
+    <t>jaesun_health.jpg</t>
+  </si>
+  <si>
+    <t>yejee_health.jpg</t>
+  </si>
+  <si>
+    <t>hyesoo_health.jpg</t>
+  </si>
+  <si>
+    <t>jaemin_health.jpg</t>
+  </si>
+  <si>
+    <t>minji_health.jpg</t>
+  </si>
+  <si>
+    <t>heeeun_bank.png</t>
+  </si>
+  <si>
+    <t>chanyoung_bank.png</t>
+  </si>
+  <si>
+    <t>jonghyuk_bank.png</t>
+  </si>
+  <si>
+    <t>yunseok_bank.png</t>
+  </si>
+  <si>
+    <t>sumin_bank.png</t>
+  </si>
+  <si>
+    <t>seungkyun_bank.png</t>
+  </si>
+  <si>
+    <t>hyungjun_bank.png</t>
+  </si>
+  <si>
+    <t>yeonghee_bank.png</t>
+  </si>
+  <si>
+    <t>minji_bank.png</t>
+  </si>
+  <si>
+    <t>113154209875</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'yunjin' , 'yunjin_resume.hwp' , 'yunjin_health.jpg' , 'yunjin_bank.png', '우리은행' , '1004427204842' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'heeeun' , 'heeeun_resume.hwp' , 'heeeun_health.jpg' , 'heeeun_bank.png' , '신한은행' , '110101764526' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'chanyoung' , 'chanyoung_resume.hwp' , 'chanyoung_health.jpg' , 'chanyoung_bank.png' , 'SC제일은행' , '10485675482' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jonghyuk' , 'jonghyuk_resume.hwp' , 'jonghyuk_health.jpg' , 'jonghyuk_bank.png' , '하나은행' , '52546278031224' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yunseok' , 'yunseok_resume.hwp' , 'yunseok_health.jpg' , 'yunseok_bank.png' , '신한은행' , '110468824651' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'taehun' , 'taehun_resume.hwp' , 'taehun_health.jpg' , null , '외환은행' , '336511098371' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'jaesun' , 'jaesun_resume.hwp' , 'jaesun_health.jpg' , null , 'NH농협은행' , '113478515465' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yejee' , null , 'yejee_health.jpg' , null , '하나은행' , '98850424756733' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyesoo' , null , 'hyesoo_health.jpg' , null , '국민은행' , '42578500105462' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jaemin' , null , 'jaemin_health.jpg' , null , '우리은행' , '1002546825713' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'eunkyul' , null , null , null , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'sumin' , null , null , 'sumin_bank.png' , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'seungkyun' , 'seungkyun_resume.hwp' , null , 'seungkyun_bank.png' , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyungjun' , 'hyungjun_resume.hwp' , null , 'hyungjun_bank.png' , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'chulsoo' , null , null , null , null , null , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yeonghee' , 'yeonghee_resume.hwp' , null , 'yeonghee_bank.png' , null , null , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'minji' , 'minji_resume.hwp' , 'minji_health.jpg' , 'minji_bank.png' , '신한은행' , '113154209875' , 0 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,7 +1325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,6 +1382,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,7 +1703,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2426,9 +2744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4667,38 +4985,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
+    <row r="64" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="8">
         <v>1</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K64" s="1" t="s">
+      <c r="I64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K64" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64" s="8">
         <v>2</v>
       </c>
     </row>
@@ -4746,8 +5065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAFB34E-2FEC-4B7C-B013-1E0F4A147F5F}">
   <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5423,4 +5742,518 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6CD09-0CA1-42AC-AA82-9DE22EE2FD82}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="88.625" customWidth="1"/>
+    <col min="11" max="11" width="25.625" customWidth="1"/>
+    <col min="13" max="13" width="8.25" customWidth="1"/>
+    <col min="14" max="14" width="1.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>313</v>
+      </c>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>314</v>
+      </c>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>316</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>317</v>
+      </c>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>319</v>
+      </c>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>320</v>
+      </c>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>321</v>
+      </c>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>322</v>
+      </c>
+      <c r="K18" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2CF414B-7AEC-4A28-9571-F8867A0EE604}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{483275D6-8D34-44F3-B77B-CD08CAF3F5BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1188,71 +1188,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'yunjin' , 'yunjin_resume.hwp' , 'yunjin_health.jpg' , 'yunjin_bank.png', '우리은행' , '1004427204842' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'heeeun' , 'heeeun_resume.hwp' , 'heeeun_health.jpg' , 'heeeun_bank.png' , '신한은행' , '110101764526' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'chanyoung' , 'chanyoung_resume.hwp' , 'chanyoung_health.jpg' , 'chanyoung_bank.png' , 'SC제일은행' , '10485675482' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jonghyuk' , 'jonghyuk_resume.hwp' , 'jonghyuk_health.jpg' , 'jonghyuk_bank.png' , '하나은행' , '52546278031224' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yunseok' , 'yunseok_resume.hwp' , 'yunseok_health.jpg' , 'yunseok_bank.png' , '신한은행' , '110468824651' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'taehun' , 'taehun_resume.hwp' , 'taehun_health.jpg' , null , '외환은행' , '336511098371' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'jaesun' , 'jaesun_resume.hwp' , 'jaesun_health.jpg' , null , 'NH농협은행' , '113478515465' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yejee' , null , 'yejee_health.jpg' , null , '하나은행' , '98850424756733' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyesoo' , null , 'hyesoo_health.jpg' , null , '국민은행' , '42578500105462' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jaemin' , null , 'jaemin_health.jpg' , null , '우리은행' , '1002546825713' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'eunkyul' , null , null , null , null , null , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'sumin' , null , null , 'sumin_bank.png' , null , null , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'seungkyun' , 'seungkyun_resume.hwp' , null , 'seungkyun_bank.png' , null , null , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyungjun' , 'hyungjun_resume.hwp' , null , 'hyungjun_bank.png' , null , null , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'chulsoo' , null , null , null , null , null , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yeonghee' , 'yeonghee_resume.hwp' , null , 'yeonghee_bank.png' , null , null , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'minji' , 'minji_resume.hwp' , 'minji_health.jpg' , 'minji_bank.png' , '신한은행' , '113154209875' , 0 );</t>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'yunjin' , 'yunjin_resume.hwp' , 'yunjin_health.jpg' , 'yunjin_bank.png', '우리은행' , '1004427204842' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'heeeun' , 'heeeun_resume.hwp' , 'heeeun_health.jpg' , 'heeeun_bank.png' , '신한은행' , '110101764526' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'chanyoung' , 'chanyoung_resume.hwp' , 'chanyoung_health.jpg' , 'chanyoung_bank.png' , 'SC제일은행' , '10485675482' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'minji' , 'minji_resume.hwp' , 'minji_health.jpg' , 'minji_bank.png' , '신한은행' , '113154209875' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yeonghee' , 'yeonghee_resume.hwp' , null , 'yeonghee_bank.png' , null , null , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'chulsoo' , null , null , null , null , null , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyungjun' , 'hyungjun_resume.hwp' , null , 'hyungjun_bank.png' , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'seungkyun' , 'seungkyun_resume.hwp' , null , 'seungkyun_bank.png' , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'sumin' , null , null , 'sumin_bank.png' , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'eunkyul' , null , null , null , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jaemin' , null , 'jaemin_health.jpg' , null , '우리은행' , '1002546825713' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyesoo' , null , 'hyesoo_health.jpg' , null , '국민은행' , '42578500105462' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yejee' , null , 'yejee_health.jpg' , null , '하나은행' , '98850424756733' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'jaesun' , 'jaesun_resume.hwp' , 'jaesun_health.jpg' , null , 'NH농협은행' , '113478515465' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'taehun' , 'taehun_resume.hwp' , 'taehun_health.jpg' , null , '외환은행' , '336511098371' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yunseok' , 'yunseok_resume.hwp' , 'yunseok_health.jpg' , 'yunseok_bank.png' , '신한은행' , '110468824651' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jonghyuk' , 'jonghyuk_resume.hwp' , 'jonghyuk_health.jpg' , 'jonghyuk_bank.png' , '하나은행' , '52546278031224' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5748,8 +5748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6CD09-0CA1-42AC-AA82-9DE22EE2FD82}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="K5" s="19"/>
     </row>
@@ -5923,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="K6" s="19"/>
     </row>
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -5977,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K8" s="19"/>
     </row>
@@ -6004,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -6031,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -6085,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -6112,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -6139,7 +6139,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K15" s="19"/>
     </row>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K16" s="19"/>
     </row>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="K17" s="19"/>
     </row>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="K18" s="19"/>
     </row>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{483275D6-8D34-44F3-B77B-CD08CAF3F5BD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5AA01847-1F62-4C2E-BBC6-70C28C6E7089}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="일일업무 DB Insert용" sheetId="3" r:id="rId3"/>
     <sheet name="daily_tasks_query" sheetId="5" r:id="rId4"/>
     <sheet name="직원인증정보 DB insert용" sheetId="6" r:id="rId5"/>
+    <sheet name="회원정보 DB insert용" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무!$A$1:$D$35</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="473">
   <si>
     <t>위생관리</t>
   </si>
@@ -1255,12 +1256,524 @@
     <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jonghyuk' , 'jonghyuk_resume.hwp' , 'jonghyuk_health.jpg' , 'jonghyuk_bank.png' , '하나은행' , '52546278031224' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_gu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_dong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연진sql문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chulsoo</t>
+  </si>
+  <si>
+    <t>heeeun</t>
+  </si>
+  <si>
+    <t>jonghyuk</t>
+  </si>
+  <si>
+    <t>minji</t>
+  </si>
+  <si>
+    <t>yeonghee</t>
+  </si>
+  <si>
+    <t>박철수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고은결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강희은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한혜수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최재민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박종혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함승균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박수민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이예지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허영희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01040872442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01072105321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01097291122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01032828507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01025408580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01020169206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01094955647</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01099031063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01053710710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01020764174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01023606586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01075794815</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01098836283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01093963130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chanyoung@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chulsoo@naver.com</t>
+  </si>
+  <si>
+    <t>eunkyul@naver.com</t>
+  </si>
+  <si>
+    <t>heeeun@naver.com</t>
+  </si>
+  <si>
+    <t>hyesoo@naver.com</t>
+  </si>
+  <si>
+    <t>hyungjun@naver.com</t>
+  </si>
+  <si>
+    <t>jaemin@naver.com</t>
+  </si>
+  <si>
+    <t>jaesun@naver.com</t>
+  </si>
+  <si>
+    <t>jonghyuk@naver.com</t>
+  </si>
+  <si>
+    <t>minji@naver.com</t>
+  </si>
+  <si>
+    <t>seungkyun@naver.com</t>
+  </si>
+  <si>
+    <t>sumin@naver.com</t>
+  </si>
+  <si>
+    <t>taehun@naver.com</t>
+  </si>
+  <si>
+    <t>yejee@naver.com</t>
+  </si>
+  <si>
+    <t>yeonghee@naver.com</t>
+  </si>
+  <si>
+    <t>yunjin@naver.com</t>
+  </si>
+  <si>
+    <t>yunseok@naver.com</t>
+  </si>
+  <si>
+    <t>chanyoung1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chulsoo1234</t>
+  </si>
+  <si>
+    <t>eunkyul1234</t>
+  </si>
+  <si>
+    <t>heeeun1234</t>
+  </si>
+  <si>
+    <t>hyesoo1234</t>
+  </si>
+  <si>
+    <t>hyungjun1234</t>
+  </si>
+  <si>
+    <t>jaemin1234</t>
+  </si>
+  <si>
+    <t>jaesun1234</t>
+  </si>
+  <si>
+    <t>jonghyuk1234</t>
+  </si>
+  <si>
+    <t>minji1234</t>
+  </si>
+  <si>
+    <t>seungkyun1234</t>
+  </si>
+  <si>
+    <t>sumin1234</t>
+  </si>
+  <si>
+    <t>taehun1234</t>
+  </si>
+  <si>
+    <t>yejee1234</t>
+  </si>
+  <si>
+    <t>yeonghee1234</t>
+  </si>
+  <si>
+    <t>yunjin1234</t>
+  </si>
+  <si>
+    <t>yunseok1234</t>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01085239468</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01051852547</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01098561452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시</t>
+  </si>
+  <si>
+    <t>마포구</t>
+  </si>
+  <si>
+    <t>도화동</t>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>이촌동</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>광명시</t>
+  </si>
+  <si>
+    <t>소하동</t>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>공항동</t>
+  </si>
+  <si>
+    <t>과천시</t>
+  </si>
+  <si>
+    <t>과천동</t>
+  </si>
+  <si>
+    <t>강동구</t>
+  </si>
+  <si>
+    <t>상일동</t>
+  </si>
+  <si>
+    <t>시흥시</t>
+  </si>
+  <si>
+    <t>정왕동</t>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>신림동</t>
+  </si>
+  <si>
+    <t>공덕동</t>
+  </si>
+  <si>
+    <t>영등포구</t>
+  </si>
+  <si>
+    <t>여의도동</t>
+  </si>
+  <si>
+    <t>오산시</t>
+  </si>
+  <si>
+    <t>가수동</t>
+  </si>
+  <si>
+    <t>수원시</t>
+  </si>
+  <si>
+    <t>매탄동</t>
+  </si>
+  <si>
+    <t>구로구</t>
+  </si>
+  <si>
+    <t>구로동</t>
+  </si>
+  <si>
+    <t>동작구</t>
+  </si>
+  <si>
+    <t>상도동</t>
+  </si>
+  <si>
+    <t>강북구</t>
+  </si>
+  <si>
+    <t>우이동</t>
+  </si>
+  <si>
+    <t>송파구</t>
+  </si>
+  <si>
+    <t>문정동</t>
+  </si>
+  <si>
+    <t>석촌동</t>
+  </si>
+  <si>
+    <t>'1989/10/29'</t>
+  </si>
+  <si>
+    <t>'1992/07/24'</t>
+  </si>
+  <si>
+    <t>'1991/09/04'</t>
+  </si>
+  <si>
+    <t>'1990/03/21'</t>
+  </si>
+  <si>
+    <t>'1995/02/21'</t>
+  </si>
+  <si>
+    <t>'1993/06/25'</t>
+  </si>
+  <si>
+    <t>'1994/08/15'</t>
+  </si>
+  <si>
+    <t>'1996/11/11'</t>
+  </si>
+  <si>
+    <t>'1996/05/12'</t>
+  </si>
+  <si>
+    <t>'1996/09/13'</t>
+  </si>
+  <si>
+    <t>'1988/01/17'</t>
+  </si>
+  <si>
+    <t>'1996/11/15'</t>
+  </si>
+  <si>
+    <t>'1998/05/30'</t>
+  </si>
+  <si>
+    <t>'1996/11/17'</t>
+  </si>
+  <si>
+    <t>'1989/03/21'</t>
+  </si>
+  <si>
+    <t>'1988/11/19'</t>
+  </si>
+  <si>
+    <t>'1992/11/20'</t>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'chulsoo' , 'chulsoo1234' , '01085239468' , '박철수' , '1992/07/24' , 'M' , 'chulsoo@naver.com' , '서울시' , '용산구' , '이촌동' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'chanyoung' , 'chanyoung1234' , '01023606586' , '주찬영' , '1989/10/29' , 'M' , 'chanyoung@naver.com' , '서울시' , '마포구' , '도화동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'eunkyul' , 'eunkyul1234' , '01097291122' , '고은결' , '1991/09/04' , 'M' , 'eunkyul@naver.com' , '경기도' , '광명시' , '소하동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yunseok' , 'yunseok1234' , '01099031063' , '장윤석' , '1992/11/20' , 'M' , 'yunseok@naver.com' , '서울시' , '송파구' , '석촌동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yunjin' , 'yunjin1234' , '01053710710' , '김연진' , '1988/11/19' , 'F' , 'yunjin@naver.com' , '서울시' , '송파구' , '문정동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yejee' , 'yejee1234' , '01020764174' , '이예지' , '1996/11/17' , 'F' , 'yejee@naver.com' , '서울시' , '동작구' , '상도동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'taehun' , 'taehun1234' , '01032828507' , '김태훈' , '1998/05/30' , 'M' , 'taehun@naver.com' , '서울시' , '구로구' , '구로동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'sumin' , 'sumin1234' , '01025408580' , '박수민' , '1996/11/15' , 'M' ,' sumin@naver.com' , '경기도' , '수원시' , '매탄동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'seungkyun' , 'seungkyun1234' , '01098836283' , '함승균' , '1988/01/17' , 'M' , 'seungkyun@naver.com' , '경기도' , '오산시' , '가수동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'minji' , 'minji1234' , '01051852547' , '김민지' , '1996/09/13' , 'F' , 'minji@naver.com' , '서울시' , '영등포구' , '여의도동' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'jonghyuk' , 'jonghyuk1234' , '01020169206' , '박종혁' , '1996/05/12' , 'M' , 'jonghyuk@naver.com' , '서울시' , '마포구' , '공덕동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'jaesun' , 'jaesun1234' ,'01094955647' , '이재선' , '1996/11/11' ,'M' , 'jaesun@naver.com' , '서울시' , '관악구' , '신림동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'jaemin' , 'jaemin1234' , '01093963130' , '최재민' , '1994/08/15' , 'F' , 'jaemin@naver.com' , '경기도' , '시흥시' , '정왕동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'hyungjun' , 'hyungjun1234' , '01040872442' , '민형준' , '1993/06/25' , 'M' , 'hyungjun@naver.com' , '서울시' , '강동구' , '상일동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'hyesoo' , 'hyesoo1234' , '01075794815' , '한혜수' , '1995/02/21' , 'F' , 'hyesoo@naver.com' , '경기도' , '과천시' , '과천동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'heeeun' , 'heeeun1234' , '01072105321' , '강희은' , '1990/03/21' , 'F' , 'heeeun@naver.com' , '서울시' , '강서구' , '공항동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,6 +1792,15 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1320,12 +1842,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1386,9 +1911,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5748,8 +6277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6CD09-0CA1-42AC-AA82-9DE22EE2FD82}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6256,4 +6785,752 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9811FB-3469-427E-843F-58178652C230}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="5.75" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="11" width="9.25" customWidth="1"/>
+    <col min="14" max="14" width="120.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="I2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J2" t="s">
+        <v>406</v>
+      </c>
+      <c r="K2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>457</v>
+      </c>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3" t="s">
+        <v>405</v>
+      </c>
+      <c r="J3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" t="s">
+        <v>409</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>456</v>
+      </c>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" t="s">
+        <v>441</v>
+      </c>
+      <c r="G4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="I4" t="s">
+        <v>410</v>
+      </c>
+      <c r="J4" t="s">
+        <v>411</v>
+      </c>
+      <c r="K4" t="s">
+        <v>412</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>458</v>
+      </c>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="I5" t="s">
+        <v>405</v>
+      </c>
+      <c r="J5" t="s">
+        <v>413</v>
+      </c>
+      <c r="K5" t="s">
+        <v>414</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>472</v>
+      </c>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="I6" t="s">
+        <v>410</v>
+      </c>
+      <c r="J6" t="s">
+        <v>415</v>
+      </c>
+      <c r="K6" t="s">
+        <v>416</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>471</v>
+      </c>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="I7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>470</v>
+      </c>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" t="s">
+        <v>404</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="I8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J8" t="s">
+        <v>419</v>
+      </c>
+      <c r="K8" t="s">
+        <v>420</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>469</v>
+      </c>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="I9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J9" t="s">
+        <v>421</v>
+      </c>
+      <c r="K9" t="s">
+        <v>422</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>468</v>
+      </c>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G10" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="I10" t="s">
+        <v>405</v>
+      </c>
+      <c r="J10" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" t="s">
+        <v>423</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>467</v>
+      </c>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G11" t="s">
+        <v>404</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" t="s">
+        <v>405</v>
+      </c>
+      <c r="J11" t="s">
+        <v>424</v>
+      </c>
+      <c r="K11" t="s">
+        <v>425</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>466</v>
+      </c>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="E12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G12" t="s">
+        <v>400</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="I12" t="s">
+        <v>410</v>
+      </c>
+      <c r="J12" t="s">
+        <v>426</v>
+      </c>
+      <c r="K12" t="s">
+        <v>427</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>465</v>
+      </c>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" t="s">
+        <v>400</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="I13" t="s">
+        <v>410</v>
+      </c>
+      <c r="J13" t="s">
+        <v>428</v>
+      </c>
+      <c r="K13" t="s">
+        <v>429</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>464</v>
+      </c>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" t="s">
+        <v>395</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="I14" t="s">
+        <v>405</v>
+      </c>
+      <c r="J14" t="s">
+        <v>430</v>
+      </c>
+      <c r="K14" t="s">
+        <v>431</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>463</v>
+      </c>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" t="s">
+        <v>350</v>
+      </c>
+      <c r="F15" t="s">
+        <v>452</v>
+      </c>
+      <c r="G15" t="s">
+        <v>404</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="I15" t="s">
+        <v>405</v>
+      </c>
+      <c r="J15" t="s">
+        <v>432</v>
+      </c>
+      <c r="K15" t="s">
+        <v>433</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>462</v>
+      </c>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="E16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" t="s">
+        <v>453</v>
+      </c>
+      <c r="G16" t="s">
+        <v>404</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="I16" t="s">
+        <v>405</v>
+      </c>
+      <c r="J16" t="s">
+        <v>434</v>
+      </c>
+      <c r="K16" t="s">
+        <v>435</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>461</v>
+      </c>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" t="s">
+        <v>398</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s">
+        <v>454</v>
+      </c>
+      <c r="G17" t="s">
+        <v>404</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="I17" t="s">
+        <v>405</v>
+      </c>
+      <c r="J17" t="s">
+        <v>436</v>
+      </c>
+      <c r="K17" t="s">
+        <v>437</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>460</v>
+      </c>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" t="s">
+        <v>399</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="E18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" t="s">
+        <v>455</v>
+      </c>
+      <c r="G18" t="s">
+        <v>400</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="I18" t="s">
+        <v>405</v>
+      </c>
+      <c r="J18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K18" t="s">
+        <v>438</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>459</v>
+      </c>
+      <c r="O18" s="19"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{2AE80C64-B145-471C-ABF6-E153432EDBBF}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{DB876573-50FB-4FA4-805D-5CD67AD4CD5E}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{6E6BE8F6-7424-45FC-B8A3-78F35219CF64}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{DAEC3F94-DD8F-467C-B7EC-ECCD24E59D1F}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{C3FC111B-D0C9-4F50-9461-1FC149E0ABDB}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{BD951DF0-C8B3-4D2D-ADDD-23AE03B40ECD}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{B5CD7914-2840-4CE8-9D29-55B5E0370E9A}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{E0F19BAD-4FAF-46DD-8B08-F67B3109C1A0}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{BFC5F6C6-E85C-4FA1-82DA-8207393B3F83}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{38AE7218-7DFD-4E12-B48C-9DAF3A4AE50B}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{B1638380-626D-4D48-AEBB-C347AA4B20D8}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{959E36B0-4988-4175-B370-A64270557AA9}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{D8A43017-D1EF-4F9F-BEA7-2180915FB6DD}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{91E64844-5386-458B-B971-BFD202859460}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{EB9A5E5B-1F6A-487A-A1E1-493F542A7D17}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{F1CD5AC9-1F66-4E09-93A2-DEF01B4610F4}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{E5F266FA-311F-4EBA-B540-91CBBE2019DC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5AA01847-1F62-4C2E-BBC6-70C28C6E7089}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BED7147E-5B61-4CCF-8846-6784AE972CFC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -1213,30 +1213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyungjun' , 'hyungjun_resume.hwp' , null , 'hyungjun_bank.png' , null , null , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'seungkyun' , 'seungkyun_resume.hwp' , null , 'seungkyun_bank.png' , null , null , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'sumin' , null , null , 'sumin_bank.png' , null , null , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'eunkyul' , null , null , null , null , null , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jaemin' , null , 'jaemin_health.jpg' , null , '우리은행' , '1002546825713' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyesoo' , null , 'hyesoo_health.jpg' , null , '국민은행' , '42578500105462' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yejee' , null , 'yejee_health.jpg' , null , '하나은행' , '98850424756733' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1721,10 +1697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yejee' , 'yejee1234' , '01020764174' , '이예지' , '1996/11/17' , 'F' , 'yejee@naver.com' , '서울시' , '동작구' , '상도동' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,10 +1713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'minji' , 'minji1234' , '01051852547' , '김민지' , '1996/09/13' , 'F' , 'minji@naver.com' , '서울시' , '영등포구' , '여의도동' , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'jonghyuk' , 'jonghyuk1234' , '01020169206' , '박종혁' , '1996/05/12' , 'M' , 'jonghyuk@naver.com' , '서울시' , '마포구' , '공덕동' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1766,6 +1734,38 @@
   </si>
   <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'heeeun' , 'heeeun1234' , '01072105321' , '강희은' , '1990/03/21' , 'F' , 'heeeun@naver.com' , '서울시' , '강서구' , '공항동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyesoo' , null , 'hyesoo_health.jpg' , null , '국민은행' , '42578500105462' , 2 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jaemin' , null , 'jaemin_health.jpg' , null , '우리은행' , '1002546825713' , 2 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'eunkyul' , null , null , null , null , null , 2 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'sumin' , null , null , 'sumin_bank.png' , null , null , 2 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'seungkyun' , 'seungkyun_resume.hwp' , null , 'seungkyun_bank.png' , null , null , 2 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyungjun' , 'hyungjun_resume.hwp' , null , 'hyungjun_bank.png' , null , null , 2 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'minji' , 'minji1234' , '01051852547' , '김민지' , '1996/09/13' , 'F' , 'minji@naver.com' , '서울시' , '영등포구' , '여의도동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6277,8 +6277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6CD09-0CA1-42AC-AA82-9DE22EE2FD82}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6425,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K5" s="19"/>
     </row>
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K6" s="19"/>
     </row>
@@ -6479,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -6506,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K8" s="19"/>
     </row>
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -6557,10 +6557,10 @@
         <v>266</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>317</v>
+        <v>465</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -6584,10 +6584,10 @@
         <v>267</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>316</v>
+        <v>466</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -6611,10 +6611,10 @@
         <v>117</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>315</v>
+        <v>467</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -6638,10 +6638,10 @@
         <v>117</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>314</v>
+        <v>468</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -6665,10 +6665,10 @@
         <v>117</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>313</v>
+        <v>469</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -6692,10 +6692,10 @@
         <v>117</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>312</v>
+        <v>470</v>
       </c>
       <c r="K15" s="19"/>
     </row>
@@ -6792,7 +6792,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6811,34 +6811,34 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>238</v>
@@ -6846,82 +6846,82 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
         <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" t="s">
         <v>400</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="I2" t="s">
-        <v>405</v>
-      </c>
-      <c r="J2" t="s">
-        <v>406</v>
-      </c>
       <c r="K2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="I3" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="O3" s="19"/>
     </row>
@@ -6930,76 +6930,76 @@
         <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="I4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" t="s">
         <v>335</v>
       </c>
-      <c r="C5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" t="s">
-        <v>341</v>
-      </c>
       <c r="F5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="O5" s="19"/>
     </row>
@@ -7008,37 +7008,37 @@
         <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I6" t="s">
         <v>404</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>409</v>
+      </c>
+      <c r="K6" t="s">
         <v>410</v>
-      </c>
-      <c r="J6" t="s">
-        <v>415</v>
-      </c>
-      <c r="K6" t="s">
-        <v>416</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="O6" s="19"/>
     </row>
@@ -7047,37 +7047,37 @@
         <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="O7" s="19"/>
     </row>
@@ -7086,37 +7086,37 @@
         <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G8" t="s">
+        <v>398</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="I8" t="s">
         <v>404</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="I8" t="s">
-        <v>410</v>
-      </c>
       <c r="J8" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="O8" s="19"/>
     </row>
@@ -7125,115 +7125,115 @@
         <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F9" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G9" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="I9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J9" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K9" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G10" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="I10" t="s">
+        <v>399</v>
+      </c>
+      <c r="J10" t="s">
         <v>400</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="I10" t="s">
-        <v>405</v>
-      </c>
-      <c r="J10" t="s">
-        <v>406</v>
-      </c>
       <c r="K10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C11" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="I11" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J11" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K11" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="O11" s="19"/>
     </row>
@@ -7242,37 +7242,37 @@
         <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="I12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="O12" s="19"/>
     </row>
@@ -7281,37 +7281,37 @@
         <v>248</v>
       </c>
       <c r="C13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="E13" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" t="s">
         <v>394</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" t="s">
-        <v>349</v>
-      </c>
-      <c r="F13" t="s">
-        <v>450</v>
-      </c>
-      <c r="G13" t="s">
-        <v>400</v>
-      </c>
       <c r="H13" s="20" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="I13" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J13" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="O13" s="19"/>
     </row>
@@ -7320,37 +7320,37 @@
         <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E14" t="s">
         <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I14" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="O14" s="19"/>
     </row>
@@ -7359,76 +7359,76 @@
         <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E15" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G15" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="I15" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J15" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K15" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>403</v>
-      </c>
       <c r="E16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F16" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J16" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K16" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="O16" s="19"/>
     </row>
@@ -7437,37 +7437,37 @@
         <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E17" t="s">
         <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G17" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="I17" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J17" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K17" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="O17" s="19"/>
     </row>
@@ -7476,37 +7476,37 @@
         <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E18" t="s">
         <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G18" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I18" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="J18" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="K18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="O18" s="19"/>
     </row>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BED7147E-5B61-4CCF-8846-6784AE972CFC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29E6F27A-21FB-4681-993B-5266D0F57990}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="daily_tasks_query" sheetId="5" r:id="rId4"/>
     <sheet name="직원인증정보 DB insert용" sheetId="6" r:id="rId5"/>
     <sheet name="회원정보 DB insert용" sheetId="7" r:id="rId6"/>
+    <sheet name="Admins DB insert용" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무!$A$1:$D$35</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="507">
   <si>
     <t>위생관리</t>
   </si>
@@ -1766,6 +1767,142 @@
   </si>
   <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'hyeja' , branch_seq.nextval , '6018519876' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyeja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'minsu' , branch_seq.nextval , '1108554132' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'yunyoung' , branch_seq.nextval , '1008512345' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admins목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunyoung1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01085234512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍윤영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1980/07/01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunyoung@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방배동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yunyoung' , 'yunyoung1234' , '01085234512' , '홍윤영' , '1980/07/01' , 'F' , 'yunyoung@naver.com' , '서울시' , '서초구' ,  '방배동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minsu1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01058428965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤민수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1975/05/24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minsu@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'minsu' , 'minsu1234' , '01058428965' , '윤민수' , '1975/05/24' , 'M' , 'minsu@naver.com' , '서울시' , '송파구' , '문정동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyeja1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01063574821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1971/04/05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyeja@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해운대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'hyeja' , 'hyeja1234' , '01063574821' , '김혜자' , '1971/04/05' , 'F' , 'hyeja@naver.com' , '부산광역시' , '해운대구' , '중1동' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1815,7 +1952,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1841,6 +1978,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1850,7 +1996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1912,6 +2058,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6789,10 +6947,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9811FB-3469-427E-843F-58178652C230}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7432,7 +7590,7 @@
       </c>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>240</v>
       </c>
@@ -7471,7 +7629,7 @@
       </c>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>241</v>
       </c>
@@ -7509,6 +7667,124 @@
         <v>453</v>
       </c>
       <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" t="s">
+        <v>398</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="L20" s="22">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="G21" t="s">
+        <v>394</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="L21" s="22">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="G22" t="s">
+        <v>398</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="L22" s="22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>506</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7530,7 +7806,103 @@
     <hyperlink ref="H16" r:id="rId15" xr:uid="{EB9A5E5B-1F6A-487A-A1E1-493F542A7D17}"/>
     <hyperlink ref="H17" r:id="rId16" xr:uid="{F1CD5AC9-1F66-4E09-93A2-DEF01B4610F4}"/>
     <hyperlink ref="H18" r:id="rId17" xr:uid="{E5F266FA-311F-4EBA-B540-91CBBE2019DC}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{7CCBB810-F3C0-4CEF-8B37-931E040A6B0E}"/>
+    <hyperlink ref="H21" r:id="rId19" xr:uid="{D4D56892-DB7D-4495-92EF-BECB1473D96D}"/>
+    <hyperlink ref="H22" r:id="rId20" xr:uid="{5667007C-1D89-4315-8588-CDE5DE6748C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEED43C-CDC9-4552-9322-4849684EBA93}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="5" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="62.375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="10" max="10" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="1.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1008512345</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1108554132</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>6018519876</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5AA01847-1F62-4C2E-BBC6-70C28C6E7089}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D38CBF-12C9-4F3D-BB78-BC7027F7591E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="daily_tasks_query" sheetId="5" r:id="rId4"/>
     <sheet name="직원인증정보 DB insert용" sheetId="6" r:id="rId5"/>
     <sheet name="회원정보 DB insert용" sheetId="7" r:id="rId6"/>
+    <sheet name="Admins DB insert용" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무!$A$1:$D$35</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="507">
   <si>
     <t>위생관리</t>
   </si>
@@ -1766,6 +1767,142 @@
   </si>
   <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'heeeun' , 'heeeun1234' , '01072105321' , '강희은' , '1990/03/21' , 'F' , 'heeeun@naver.com' , '서울시' , '강서구' , '공항동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'hyeja' , branch_seq.nextval , '6018519876' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyeja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'minsu' , branch_seq.nextval , '1108554132' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'yunyoung' , branch_seq.nextval , '1008512345' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>license_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admins목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunyoung1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01085234512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍윤영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1980/07/01'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunyoung@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서초구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방배동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yunyoung' , 'yunyoung1234' , '01085234512' , '홍윤영' , '1980/07/01' , 'F' , 'yunyoung@naver.com' , '서울시' , '서초구' ,  '방배동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minsu1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01058428965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤민수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1975/05/24'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minsu@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송파구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문정동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'minsu' , 'minsu1234' , '01058428965' , '윤민수' , '1975/05/24' , 'M' , 'minsu@naver.com' , '서울시' , '송파구' , '문정동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyeja1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01063574821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1971/04/05'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyeja@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해운대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중1동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'hyeja' , 'hyeja1234' , '01063574821' , '김혜자' , '1971/04/05' , 'F' , 'hyeja@naver.com' , '부산광역시' , '해운대구' , '중1동' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1815,7 +1952,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1841,6 +1978,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1850,7 +1996,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1912,6 +2058,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6789,10 +6947,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9811FB-3469-427E-843F-58178652C230}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7432,7 +7590,7 @@
       </c>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>240</v>
       </c>
@@ -7471,7 +7629,7 @@
       </c>
       <c r="O17" s="19"/>
     </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>241</v>
       </c>
@@ -7509,6 +7667,124 @@
         <v>459</v>
       </c>
       <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="G20" t="s">
+        <v>404</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="L20" s="22">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="G21" t="s">
+        <v>400</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="L21" s="22">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="G22" t="s">
+        <v>404</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="L22" s="22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>506</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7530,7 +7806,103 @@
     <hyperlink ref="H16" r:id="rId15" xr:uid="{EB9A5E5B-1F6A-487A-A1E1-493F542A7D17}"/>
     <hyperlink ref="H17" r:id="rId16" xr:uid="{F1CD5AC9-1F66-4E09-93A2-DEF01B4610F4}"/>
     <hyperlink ref="H18" r:id="rId17" xr:uid="{E5F266FA-311F-4EBA-B540-91CBBE2019DC}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{649A369D-DBDE-4D8E-995D-ADD45F3CF174}"/>
+    <hyperlink ref="H21" r:id="rId19" xr:uid="{3141D853-BBEF-482A-A848-3608112C37B2}"/>
+    <hyperlink ref="H22" r:id="rId20" xr:uid="{944089E3-0B8C-4F6F-BB8B-5B496FE734B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D262D3F-58B4-43CE-A4C2-0BE7617B40B2}">
+  <dimension ref="B1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="5" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="62.375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="10" max="10" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="1.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1008512345</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1108554132</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>6018519876</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29E6F27A-21FB-4681-993B-5266D0F57990}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A062E2B-3315-437A-ACE7-8D512082D510}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="직원인증정보 DB insert용" sheetId="6" r:id="rId5"/>
     <sheet name="회원정보 DB insert용" sheetId="7" r:id="rId6"/>
     <sheet name="Admins DB insert용" sheetId="8" r:id="rId7"/>
+    <sheet name="Branches DB insert용" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무!$A$1:$D$35</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="530">
   <si>
     <t>위생관리</t>
   </si>
@@ -1214,6 +1215,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyungjun' , 'hyungjun_resume.hwp' , null , 'hyungjun_bank.png' , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'seungkyun' , 'seungkyun_resume.hwp' , null , 'seungkyun_bank.png' , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'sumin' , null , null , 'sumin_bank.png' , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'eunkyul' , null , null , null , null , null , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jaemin' , null , 'jaemin_health.jpg' , null , '우리은행' , '1002546825713' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyesoo' , null , 'hyesoo_health.jpg' , null , '국민은행' , '42578500105462' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'yejee' , null , 'yejee_health.jpg' , null , '하나은행' , '98850424756733' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1698,6 +1723,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yejee' , 'yejee1234' , '01020764174' , '이예지' , '1996/11/17' , 'F' , 'yejee@naver.com' , '서울시' , '동작구' , '상도동' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1714,6 +1743,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'minji' , 'minji1234' , '01051852547' , '김민지' , '1996/09/13' , 'F' , 'minji@naver.com' , '서울시' , '영등포구' , '여의도동' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'jonghyuk' , 'jonghyuk1234' , '01020169206' , '박종혁' , '1996/05/12' , 'M' , 'jonghyuk@naver.com' , '서울시' , '마포구' , '공덕동' , 1 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1738,38 +1771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyesoo' , null , 'hyesoo_health.jpg' , null , '국민은행' , '42578500105462' , 2 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs (staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values ( 'jaemin' , null , 'jaemin_health.jpg' , null , '우리은행' , '1002546825713' , 2 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'eunkyul' , null , null , null , null , null , 2 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'sumin' , null , null , 'sumin_bank.png' , null , null , 2 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'seungkyun' , 'seungkyun_resume.hwp' , null , 'seungkyun_bank.png' , null , null , 2 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into staffs ( staff_id, resume_file, health_file, bank_file, bank_name, account_num, status ) values (  'hyungjun' , 'hyungjun_resume.hwp' , null , 'hyungjun_bank.png' , null , null , 2 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'minji' , 'minji1234' , '01051852547' , '김민지' , '1996/09/13' , 'F' , 'minji@naver.com' , '서울시' , '영등포구' , '여의도동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'hyeja' , branch_seq.nextval , '6018519876' , 0 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1903,6 +1904,96 @@
   </si>
   <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'hyeja' , 'hyeja1234' , '01063574821' , '김혜자' , '1971/04/05' , 'F' , 'hyeja@naver.com' , '부산광역시' , '해운대구' , '중1동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>representative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch_phone_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opening_hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가락시장점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해운대점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0517829961 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0221574531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0234319633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일 08:00 ~ 23:00 / 주말 11:00 ~ 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월~금 07:00 ~ 23:00 / 토,일 08:00 ~ 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00 - 23:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>629-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신천동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-26번지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가락동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79-2 1층가락동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into branches(branch_seq, branch_name, representative, branch_phone_num, opening_hour, address_city, address_gu, address_dong, address_detail) values ( branch_seq.nextval,  '잠실점' , '윤민수' , '0234319633' , '월~금 07:00 ~ 23:00 / 토,일 08:00 ~ 23:00' , '서울시' , '송파구' , '신천동' , '7-26번지' );</t>
+  </si>
+  <si>
+    <t>insert into branches(branch_seq, branch_name, representative, branch_phone_num, opening_hour, address_city, address_gu, address_dong, address_detail) values ( branch_seq.nextval,  '해운대점' , '김혜자' , '051782996'1  , '09:00 - 23:00' , '부산광역시' , '해운대구' , '우동' , '629-1' );</t>
+  </si>
+  <si>
+    <t>insert into branches(branch_seq, branch_name, representative, branch_phone_num, opening_hour, address_city, address_gu, address_dong, address_detail) values ( branch_seq.nextval,  '가락시장점' , '홍윤영' , '0221574531' , '평일 08:00 ~ 23:00 / 주말 11:00 ~ 23:00' , '서울시' , '송파구' , '가락동' , '79-2 1층가락동' );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6435,8 +6526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6CD09-0CA1-42AC-AA82-9DE22EE2FD82}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6583,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K5" s="19"/>
     </row>
@@ -6610,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K6" s="19"/>
     </row>
@@ -6637,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K7" s="19"/>
     </row>
@@ -6664,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K8" s="19"/>
     </row>
@@ -6691,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K9" s="19"/>
     </row>
@@ -6715,10 +6806,10 @@
         <v>266</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>465</v>
+        <v>317</v>
       </c>
       <c r="K10" s="19"/>
     </row>
@@ -6742,10 +6833,10 @@
         <v>267</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>466</v>
+        <v>316</v>
       </c>
       <c r="K11" s="19"/>
     </row>
@@ -6769,10 +6860,10 @@
         <v>117</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>467</v>
+        <v>315</v>
       </c>
       <c r="K12" s="19"/>
     </row>
@@ -6796,10 +6887,10 @@
         <v>117</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>468</v>
+        <v>314</v>
       </c>
       <c r="K13" s="19"/>
     </row>
@@ -6823,10 +6914,10 @@
         <v>117</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>469</v>
+        <v>313</v>
       </c>
       <c r="K14" s="19"/>
     </row>
@@ -6850,10 +6941,10 @@
         <v>117</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
       <c r="K15" s="19"/>
     </row>
@@ -6949,8 +7040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9811FB-3469-427E-843F-58178652C230}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6963,123 +7054,123 @@
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="5.75" customWidth="1"/>
     <col min="8" max="8" width="21.625" customWidth="1"/>
-    <col min="9" max="11" width="9.25" customWidth="1"/>
+    <col min="9" max="11" width="11.375" customWidth="1"/>
     <col min="14" max="14" width="120.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E2" t="s">
         <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="O2" s="19"/>
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="I3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J3" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="O3" s="19"/>
     </row>
@@ -7088,76 +7179,76 @@
         <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="I4" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J4" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K4" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="O4" s="19"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G5" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="I5" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J5" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K5" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="O5" s="19"/>
     </row>
@@ -7166,37 +7257,37 @@
         <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E6" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G6" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I6" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J6" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="O6" s="19"/>
     </row>
@@ -7205,37 +7296,37 @@
         <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="I7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="O7" s="19"/>
     </row>
@@ -7244,37 +7335,37 @@
         <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="G8" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="I8" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J8" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K8" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="O8" s="19"/>
     </row>
@@ -7283,115 +7374,115 @@
         <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E9" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="G9" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="I9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J9" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K9" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="O9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E10" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F10" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G10" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="I10" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K10" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E11" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G11" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="I11" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J11" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K11" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="O11" s="19"/>
     </row>
@@ -7400,37 +7491,37 @@
         <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E12" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="G12" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="I12" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J12" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K12" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="O12" s="19"/>
     </row>
@@ -7439,37 +7530,37 @@
         <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F13" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G13" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="I13" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="J13" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K13" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="O13" s="19"/>
     </row>
@@ -7478,37 +7569,37 @@
         <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="E14" t="s">
         <v>130</v>
       </c>
       <c r="F14" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G14" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="I14" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J14" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K14" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="O14" s="19"/>
     </row>
@@ -7517,76 +7608,76 @@
         <v>244</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F15" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G15" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="I15" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J15" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="K15" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E16" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F16" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G16" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="I16" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J16" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="O16" s="19"/>
     </row>
@@ -7595,37 +7686,37 @@
         <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E17" t="s">
         <v>119</v>
       </c>
       <c r="F17" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G17" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="I17" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J17" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K17" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="O17" s="19"/>
     </row>
@@ -7634,37 +7725,37 @@
         <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E18" t="s">
         <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G18" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I18" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="J18" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K18" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="O18" s="19"/>
     </row>
@@ -7689,7 +7780,7 @@
         <v>484</v>
       </c>
       <c r="G20" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>485</v>
@@ -7727,7 +7818,7 @@
         <v>493</v>
       </c>
       <c r="G21" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>494</v>
@@ -7765,7 +7856,7 @@
         <v>501</v>
       </c>
       <c r="G22" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>502</v>
@@ -7806,20 +7897,20 @@
     <hyperlink ref="H16" r:id="rId15" xr:uid="{EB9A5E5B-1F6A-487A-A1E1-493F542A7D17}"/>
     <hyperlink ref="H17" r:id="rId16" xr:uid="{F1CD5AC9-1F66-4E09-93A2-DEF01B4610F4}"/>
     <hyperlink ref="H18" r:id="rId17" xr:uid="{E5F266FA-311F-4EBA-B540-91CBBE2019DC}"/>
-    <hyperlink ref="H20" r:id="rId18" xr:uid="{7CCBB810-F3C0-4CEF-8B37-931E040A6B0E}"/>
-    <hyperlink ref="H21" r:id="rId19" xr:uid="{D4D56892-DB7D-4495-92EF-BECB1473D96D}"/>
-    <hyperlink ref="H22" r:id="rId20" xr:uid="{5667007C-1D89-4315-8588-CDE5DE6748C6}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{649A369D-DBDE-4D8E-995D-ADD45F3CF174}"/>
+    <hyperlink ref="H21" r:id="rId19" xr:uid="{3141D853-BBEF-482A-A848-3608112C37B2}"/>
+    <hyperlink ref="H22" r:id="rId20" xr:uid="{944089E3-0B8C-4F6F-BB8B-5B496FE734B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEED43C-CDC9-4552-9322-4849684EBA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D262D3F-58B4-43CE-A4C2-0BE7617B40B2}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7905,4 +7996,160 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE842B-8361-4A2D-9D9A-659B4B1BB3DA}">
+  <dimension ref="B1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="14" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="L2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="L3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>503</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="L4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A062E2B-3315-437A-ACE7-8D512082D510}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2889775-220E-4EF5-9DB2-F5DA83FE68F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7910,7 +7910,7 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8003,7 +8003,7 @@
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2889775-220E-4EF5-9DB2-F5DA83FE68F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3229D78F-B5E3-42F7-A10B-71D500197FE4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
     <sheet name="일일업무" sheetId="2" r:id="rId2"/>
     <sheet name="일일업무 DB Insert용" sheetId="3" r:id="rId3"/>
     <sheet name="daily_tasks_query" sheetId="5" r:id="rId4"/>
-    <sheet name="직원인증정보 DB insert용" sheetId="6" r:id="rId5"/>
-    <sheet name="회원정보 DB insert용" sheetId="7" r:id="rId6"/>
+    <sheet name="staffs DB insert용" sheetId="6" r:id="rId5"/>
+    <sheet name="users DB insert용" sheetId="7" r:id="rId6"/>
     <sheet name="Admins DB insert용" sheetId="8" r:id="rId7"/>
     <sheet name="Branches DB insert용" sheetId="9" r:id="rId8"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="542">
   <si>
     <t>위생관리</t>
   </si>
@@ -1703,94 +1703,14 @@
     <t>'1992/11/20'</t>
   </si>
   <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'chulsoo' , 'chulsoo1234' , '01085239468' , '박철수' , '1992/07/24' , 'M' , 'chulsoo@naver.com' , '서울시' , '용산구' , '이촌동' , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'chanyoung' , 'chanyoung1234' , '01023606586' , '주찬영' , '1989/10/29' , 'M' , 'chanyoung@naver.com' , '서울시' , '마포구' , '도화동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'eunkyul' , 'eunkyul1234' , '01097291122' , '고은결' , '1991/09/04' , 'M' , 'eunkyul@naver.com' , '경기도' , '광명시' , '소하동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yunseok' , 'yunseok1234' , '01099031063' , '장윤석' , '1992/11/20' , 'M' , 'yunseok@naver.com' , '서울시' , '송파구' , '석촌동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yunjin' , 'yunjin1234' , '01053710710' , '김연진' , '1988/11/19' , 'F' , 'yunjin@naver.com' , '서울시' , '송파구' , '문정동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yejee' , 'yejee1234' , '01020764174' , '이예지' , '1996/11/17' , 'F' , 'yejee@naver.com' , '서울시' , '동작구' , '상도동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'taehun' , 'taehun1234' , '01032828507' , '김태훈' , '1998/05/30' , 'M' , 'taehun@naver.com' , '서울시' , '구로구' , '구로동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'sumin' , 'sumin1234' , '01025408580' , '박수민' , '1996/11/15' , 'M' ,' sumin@naver.com' , '경기도' , '수원시' , '매탄동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'seungkyun' , 'seungkyun1234' , '01098836283' , '함승균' , '1988/01/17' , 'M' , 'seungkyun@naver.com' , '경기도' , '오산시' , '가수동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'minji' , 'minji1234' , '01051852547' , '김민지' , '1996/09/13' , 'F' , 'minji@naver.com' , '서울시' , '영등포구' , '여의도동' , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'jonghyuk' , 'jonghyuk1234' , '01020169206' , '박종혁' , '1996/05/12' , 'M' , 'jonghyuk@naver.com' , '서울시' , '마포구' , '공덕동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'jaesun' , 'jaesun1234' ,'01094955647' , '이재선' , '1996/11/11' ,'M' , 'jaesun@naver.com' , '서울시' , '관악구' , '신림동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'jaemin' , 'jaemin1234' , '01093963130' , '최재민' , '1994/08/15' , 'F' , 'jaemin@naver.com' , '경기도' , '시흥시' , '정왕동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'hyungjun' , 'hyungjun1234' , '01040872442' , '민형준' , '1993/06/25' , 'M' , 'hyungjun@naver.com' , '서울시' , '강동구' , '상일동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'hyesoo' , 'hyesoo1234' , '01075794815' , '한혜수' , '1995/02/21' , 'F' , 'hyesoo@naver.com' , '경기도' , '과천시' , '과천동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'heeeun' , 'heeeun1234' , '01072105321' , '강희은' , '1990/03/21' , 'F' , 'heeeun@naver.com' , '서울시' , '강서구' , '공항동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'hyeja' , branch_seq.nextval , '6018519876' , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hyeja</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'minsu' , branch_seq.nextval , '1108554132' , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>minsu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'yunyoung' , branch_seq.nextval , '1008512345' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>license_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1835,10 +1755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'yunyoung' , 'yunyoung1234' , '01085234512' , '홍윤영' , '1980/07/01' , 'F' , 'yunyoung@naver.com' , '서울시' , '서초구' ,  '방배동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>minsu1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1867,10 +1783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'minsu' , 'minsu1234' , '01058428965' , '윤민수' , '1975/05/24' , 'M' , 'minsu@naver.com' , '서울시' , '송파구' , '문정동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hyeja1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1903,10 +1815,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status) values ( 'hyeja' , 'hyeja1234' , '01063574821' , '김혜자' , '1971/04/05' , 'F' , 'hyeja@naver.com' , '부산광역시' , '해운대구' , '중1동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>branch_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1994,6 +1902,146 @@
   </si>
   <si>
     <t>insert into branches(branch_seq, branch_name, representative, branch_phone_num, opening_hour, address_city, address_gu, address_dong, address_detail) values ( branch_seq.nextval,  '가락시장점' , '홍윤영' , '0221574531' , '평일 08:00 ~ 23:00 / 주말 11:00 ~ 23:00' , '서울시' , '송파구' , '가락동' , '79-2 1층가락동' );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile_photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chanyoung_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chulsoo_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunyoung_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minsu_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'jonghyuk' , 'jonghyuk1234' , '01020169206' , '박종혁' , '1996/05/12' , 'M' , 'jonghyuk@naver.com' , '서울시' , '마포구' , '공덕동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'minji' , 'minji1234' , '01051852547' , '김민지' , '1996/09/13' , 'F' , 'minji@naver.com' , '서울시' , '영등포구' , '여의도동' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'seungkyun' , 'seungkyun1234' , '01098836283' , '함승균' , '1988/01/17' , 'M' , 'seungkyun@naver.com' , '경기도' , '오산시' , '가수동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'sumin' , 'sumin1234' , '01025408580' , '박수민' , '1996/11/15' , 'M' ,' sumin@naver.com' , '경기도' , '수원시' , '매탄동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'taehun' , 'taehun1234' , '01032828507' , '김태훈' , '1998/05/30' , 'M' , 'taehun@naver.com' , '서울시' , '구로구' , '구로동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yejee' , 'yejee1234' , '01020764174' , '이예지' , '1996/11/17' , 'F' , 'yejee@naver.com' , '서울시' , '동작구' , '상도동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yunjin' , 'yunjin1234' , '01053710710' , '김연진' , '1988/11/19' , 'F' , 'yunjin@naver.com' , '서울시' , '송파구' , '문정동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yunseok' , 'yunseok1234' , '01099031063' , '장윤석' , '1992/11/20' , 'M' , 'yunseok@naver.com' , '서울시' , '송파구' , '석촌동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'hyeja' , 'hyeja1234' , '01063574821' , '김혜자' , '1971/04/05' , 'F' , 'hyeja@naver.com' , '부산광역시' , '해운대구' , '중1동' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'chanyoung' , 'chanyoung1234' , '01023606586' , '주찬영' , '1989/10/29' , 'M' , 'chanyoung@naver.com' , '서울시' , '마포구' , '도화동' , 1, 'chanyoung_profile.jpg' );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'chulsoo' , 'chulsoo1234' , '01085239468' , '박철수' , '1992/07/24' , 'M' , 'chulsoo@naver.com' , '서울시' , '용산구' , '이촌동' , 0 , 'chulsoo_profile.jpg');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eunkyul_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'eunkyul' , 'eunkyul1234' , '01097291122' , '고은결' , '1991/09/04' , 'M' , 'eunkyul@naver.com' , '경기도' , '광명시' , '소하동' , 1 , 'eunkyul_profile.jpg');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heeeun_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'heeeun' , 'heeeun1234' , '01072105321' , '강희은' , '1990/03/21' , 'F' , 'heeeun@naver.com' , '서울시' , '강서구' , '공항동' , 1 ,'heeeun_profile.jpg');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyesoo_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'hyesoo' , 'hyesoo1234' , '01075794815' , '한혜수' , '1995/02/21' , 'F' , 'hyesoo@naver.com' , '경기도' , '과천시' , '과천동' , 1 , 'hyesoo_profile.jpg');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyungjun_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'hyungjun' , 'hyungjun1234' , '01040872442' , '민형준' , '1993/06/25' , 'M' , 'hyungjun@naver.com' , '서울시' , '강동구' , '상일동' , 1, 'hyungjun_profile.jpg');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaemin_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'jaemin' , 'jaemin1234' , '01093963130' , '최재민' , '1994/08/15' , 'F' , 'jaemin@naver.com' , '경기도' , '시흥시' , '정왕동' , 1, 'jaemin_profile.jpg');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaesun_profile.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'jaesun' , 'jaesun1234' ,'01094955647' , '이재선' , '1996/11/11' ,'M' , 'jaesun@naver.com' , '서울시' , '관악구' , '신림동' , 1, 'jaesun_profile.jpg' );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yunyoung' , 'yunyoung1234' , '01085234512' , '홍윤영' , '1980/07/01' , 'F' , 'yunyoung@naver.com' , '서울시' , '서초구' ,  '방배동' , 1, 'yunyoung_profile.jpg');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'minsu' , 'minsu1234' , '01058428965' , '윤민수' , '1975/05/24' , 'M' , 'minsu@naver.com' , '서울시' , '송파구' , '문정동' , 1, 'minsu_profile.jpg');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'yunyoung' , 1, '1008512345' , 1 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'minsu' , 2 , '1108554132' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'hyeja' , 3, '6018519876' , 0 );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6527,7 +6575,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7038,10 +7086,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9811FB-3469-427E-843F-58178652C230}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7055,10 +7103,11 @@
     <col min="7" max="7" width="5.75" customWidth="1"/>
     <col min="8" max="8" width="21.625" customWidth="1"/>
     <col min="9" max="11" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="120.875" customWidth="1"/>
+    <col min="13" max="13" width="19.125" customWidth="1"/>
+    <col min="15" max="15" width="120.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>323</v>
       </c>
@@ -7092,8 +7141,11 @@
       <c r="L1" s="4" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>333</v>
       </c>
@@ -7130,12 +7182,15 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>457</v>
-      </c>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>508</v>
+      </c>
+      <c r="O2" t="s">
+        <v>523</v>
+      </c>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>334</v>
       </c>
@@ -7169,12 +7224,15 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
-        <v>456</v>
-      </c>
-      <c r="O3" s="19"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>509</v>
+      </c>
+      <c r="O3" t="s">
+        <v>524</v>
+      </c>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>247</v>
       </c>
@@ -7208,12 +7266,15 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>458</v>
-      </c>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>525</v>
+      </c>
+      <c r="O4" t="s">
+        <v>526</v>
+      </c>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>335</v>
       </c>
@@ -7247,12 +7308,15 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>472</v>
-      </c>
-      <c r="O5" s="19"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>527</v>
+      </c>
+      <c r="O5" t="s">
+        <v>528</v>
+      </c>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>245</v>
       </c>
@@ -7286,12 +7350,15 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>471</v>
-      </c>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>529</v>
+      </c>
+      <c r="O6" t="s">
+        <v>530</v>
+      </c>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>250</v>
       </c>
@@ -7325,12 +7392,15 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>470</v>
-      </c>
-      <c r="O7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>531</v>
+      </c>
+      <c r="O7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>246</v>
       </c>
@@ -7364,12 +7434,15 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="N8" t="s">
-        <v>469</v>
-      </c>
-      <c r="O8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>533</v>
+      </c>
+      <c r="O8" t="s">
+        <v>534</v>
+      </c>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>243</v>
       </c>
@@ -7403,12 +7476,15 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="N9" t="s">
-        <v>468</v>
-      </c>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>535</v>
+      </c>
+      <c r="O9" t="s">
+        <v>536</v>
+      </c>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>336</v>
       </c>
@@ -7442,12 +7518,15 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="N10" t="s">
-        <v>467</v>
-      </c>
-      <c r="O10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>522</v>
+      </c>
+      <c r="O10" t="s">
+        <v>512</v>
+      </c>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>337</v>
       </c>
@@ -7481,12 +7560,15 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="N11" t="s">
-        <v>466</v>
-      </c>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>522</v>
+      </c>
+      <c r="O11" t="s">
+        <v>513</v>
+      </c>
+      <c r="P11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>249</v>
       </c>
@@ -7520,12 +7602,15 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="N12" t="s">
-        <v>465</v>
-      </c>
-      <c r="O12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>522</v>
+      </c>
+      <c r="O12" t="s">
+        <v>514</v>
+      </c>
+      <c r="P12" s="19"/>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>248</v>
       </c>
@@ -7559,12 +7644,15 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="N13" t="s">
-        <v>464</v>
-      </c>
-      <c r="O13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>522</v>
+      </c>
+      <c r="O13" t="s">
+        <v>515</v>
+      </c>
+      <c r="P13" s="19"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>242</v>
       </c>
@@ -7598,12 +7686,15 @@
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="N14" t="s">
-        <v>463</v>
-      </c>
-      <c r="O14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>522</v>
+      </c>
+      <c r="O14" t="s">
+        <v>516</v>
+      </c>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>244</v>
       </c>
@@ -7637,12 +7728,15 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>462</v>
-      </c>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M15" t="s">
+        <v>522</v>
+      </c>
+      <c r="O15" t="s">
+        <v>517</v>
+      </c>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>338</v>
       </c>
@@ -7676,12 +7770,15 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="N16" t="s">
-        <v>461</v>
-      </c>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>522</v>
+      </c>
+      <c r="O16" t="s">
+        <v>518</v>
+      </c>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>240</v>
       </c>
@@ -7715,12 +7812,15 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="N17" t="s">
-        <v>460</v>
-      </c>
-      <c r="O17" s="19"/>
-    </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>522</v>
+      </c>
+      <c r="O17" t="s">
+        <v>519</v>
+      </c>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>241</v>
       </c>
@@ -7754,127 +7854,139 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="N18" t="s">
-        <v>459</v>
-      </c>
-      <c r="O18" s="19"/>
-    </row>
-    <row r="19" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>522</v>
+      </c>
+      <c r="O18" t="s">
+        <v>520</v>
+      </c>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
         <v>120</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="G20" t="s">
         <v>404</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="L20" s="22">
         <v>1</v>
       </c>
-      <c r="N20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M20" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="O20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="G21" t="s">
         <v>400</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="L21" s="22">
         <v>1</v>
       </c>
-      <c r="N21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M21" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="O21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="G22" t="s">
         <v>404</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="L22" s="22">
         <v>1</v>
       </c>
-      <c r="N22" t="s">
-        <v>506</v>
+      <c r="M22" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="O22" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -7909,8 +8021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D262D3F-58B4-43CE-A4C2-0BE7617B40B2}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7926,13 +8038,13 @@
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>238</v>
@@ -7952,12 +8064,12 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -7969,12 +8081,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -7986,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -8002,8 +8114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67DE842B-8361-4A2D-9D9A-659B4B1BB3DA}">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8025,16 +8137,16 @@
         <v>115</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>330</v>
@@ -8046,7 +8158,7 @@
         <v>332</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -8054,31 +8166,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="L2" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -8086,31 +8198,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="L3" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
@@ -8118,31 +8230,31 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="L4" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3229D78F-B5E3-42F7-A10B-71D500197FE4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CA158DA-F4D0-4845-992A-8489E4FAB282}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -1925,46 +1925,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'jonghyuk' , 'jonghyuk1234' , '01020169206' , '박종혁' , '1996/05/12' , 'M' , 'jonghyuk@naver.com' , '서울시' , '마포구' , '공덕동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'minji' , 'minji1234' , '01051852547' , '김민지' , '1996/09/13' , 'F' , 'minji@naver.com' , '서울시' , '영등포구' , '여의도동' , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'seungkyun' , 'seungkyun1234' , '01098836283' , '함승균' , '1988/01/17' , 'M' , 'seungkyun@naver.com' , '경기도' , '오산시' , '가수동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'sumin' , 'sumin1234' , '01025408580' , '박수민' , '1996/11/15' , 'M' ,' sumin@naver.com' , '경기도' , '수원시' , '매탄동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'taehun' , 'taehun1234' , '01032828507' , '김태훈' , '1998/05/30' , 'M' , 'taehun@naver.com' , '서울시' , '구로구' , '구로동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yejee' , 'yejee1234' , '01020764174' , '이예지' , '1996/11/17' , 'F' , 'yejee@naver.com' , '서울시' , '동작구' , '상도동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 0 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yunjin' , 'yunjin1234' , '01053710710' , '김연진' , '1988/11/19' , 'F' , 'yunjin@naver.com' , '서울시' , '송파구' , '문정동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yunseok' , 'yunseok1234' , '01099031063' , '장윤석' , '1992/11/20' , 'M' , 'yunseok@naver.com' , '서울시' , '송파구' , '석촌동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'hyeja' , 'hyeja1234' , '01063574821' , '김혜자' , '1971/04/05' , 'F' , 'hyeja@naver.com' , '부산광역시' , '해운대구' , '중1동' , 1 );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2042,6 +2002,46 @@
   </si>
   <si>
     <t>insert into admins (admin_id, branch_seq, license_num, status) values ( 'hyeja' , 3, '6018519876' , 0 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'jonghyuk' , 'jonghyuk1234' , '01020169206' , '박종혁' , '1996/05/12' , 'M' , 'jonghyuk@naver.com' , '서울시' , '마포구' , '공덕동' , 1 , null);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'minji' , 'minji1234' , '01051852547' , '김민지' , '1996/09/13' , 'F' , 'minji@naver.com' , '서울시' , '영등포구' , '여의도동' , 0, null);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'seungkyun' , 'seungkyun1234' , '01098836283' , '함승균' , '1988/01/17' , 'M' , 'seungkyun@naver.com' , '경기도' , '오산시' , '가수동' , 1, null );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'sumin' , 'sumin1234' , '01025408580' , '박수민' , '1996/11/15' , 'M' ,' sumin@naver.com' , '경기도' , '수원시' , '매탄동' , 1 , null);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'taehun' , 'taehun1234' , '01032828507' , '김태훈' , '1998/05/30' , 'M' , 'taehun@naver.com' , '서울시' , '구로구' , '구로동' , 1, null );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yejee' , 'yejee1234' , '01020764174' , '이예지' , '1996/11/17' , 'F' , 'yejee@naver.com' , '서울시' , '동작구' , '상도동' , 1, null );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yeonghee' , 'yeonghee1234' , '01098561452' , '허영희' , '1989/03/21' , 'F' , 'yeonghee@naver.com' , '서울시' , '강북구' , '우이동' , 0, null );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yunjin' , 'yunjin1234' , '01053710710' , '김연진' , '1988/11/19' , 'F' , 'yunjin@naver.com' , '서울시' , '송파구' , '문정동' , 1, null );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'yunseok' , 'yunseok1234' , '01099031063' , '장윤석' , '1992/11/20' , 'M' , 'yunseok@naver.com' , '서울시' , '송파구' , '석촌동' , 1, null );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'hyeja' , 'hyeja1234' , '01063574821' , '김혜자' , '1971/04/05' , 'F' , 'hyeja@naver.com' , '부산광역시' , '해운대구' , '중1동' , 1, null );</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7088,8 +7088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9811FB-3469-427E-843F-58178652C230}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7186,7 +7186,7 @@
         <v>508</v>
       </c>
       <c r="O2" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="P2" s="19"/>
     </row>
@@ -7228,7 +7228,7 @@
         <v>509</v>
       </c>
       <c r="O3" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="P3" s="19"/>
     </row>
@@ -7267,10 +7267,10 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="O4" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="P4" s="19"/>
     </row>
@@ -7309,10 +7309,10 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="O5" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="P5" s="19"/>
     </row>
@@ -7351,10 +7351,10 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="O6" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="P6" s="19"/>
     </row>
@@ -7393,10 +7393,10 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="O7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="P7" s="19"/>
     </row>
@@ -7435,10 +7435,10 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="O8" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="P8" s="19"/>
     </row>
@@ -7477,10 +7477,10 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="O9" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="P9" s="19"/>
     </row>
@@ -7519,10 +7519,10 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O10" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="P10" s="19"/>
     </row>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O11" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="P11" s="19"/>
     </row>
@@ -7603,10 +7603,10 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O12" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="P12" s="19"/>
     </row>
@@ -7645,10 +7645,10 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O13" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="P13" s="19"/>
     </row>
@@ -7687,10 +7687,10 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O14" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="P14" s="19"/>
     </row>
@@ -7729,10 +7729,10 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O15" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="P15" s="19"/>
     </row>
@@ -7771,10 +7771,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O16" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="P16" s="19"/>
     </row>
@@ -7813,10 +7813,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O17" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="P17" s="19"/>
     </row>
@@ -7855,10 +7855,10 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O18" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="P18" s="19"/>
     </row>
@@ -7904,7 +7904,7 @@
         <v>510</v>
       </c>
       <c r="O20" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -7945,7 +7945,7 @@
         <v>511</v>
       </c>
       <c r="O21" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -7983,10 +7983,10 @@
         <v>1</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="O22" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -8021,7 +8021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D262D3F-58B4-43CE-A4C2-0BE7617B40B2}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -8064,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -8081,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -8098,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CA158DA-F4D0-4845-992A-8489E4FAB282}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EFD7EBC3-BA7D-4BC1-B180-A097791CC05E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="users DB insert용" sheetId="7" r:id="rId6"/>
     <sheet name="Admins DB insert용" sheetId="8" r:id="rId7"/>
     <sheet name="Branches DB insert용" sheetId="9" r:id="rId8"/>
+    <sheet name="Branch_staffs DB insert용" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무!$A$1:$D$35</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="601">
   <si>
     <t>위생관리</t>
   </si>
@@ -2042,6 +2043,190 @@
   </si>
   <si>
     <t>insert into users (user_id, pw, phone_num, name, birth, gender, email, address_city, address_gu, address_dong, status, profile_photo) values ( 'hyeja' , 'hyeja1234' , '01063574821' , '김혜자' , '1971/04/05' , 'F' , 'hyeja@naver.com' , '부산광역시' , '해운대구' , '중1동' , 1, null );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2017/07/10', null, 1, 'heeeun', '오픈');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2018/01/19', null, 1, 'chanyoung', '미들');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2018/02/15', null, 1, 'jonghyuk', '미들');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2016/11/29', null, 1, 'yunseok', '미들');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2017/04/15', null, 1, 'taehun', '마감');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2016/12/07', null, 1, 'jaesun', '마감');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2018/01/26', null, 1, 'yejee', '마감');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2014/10/31', '2016/11/11', 1, 'hyesoo', '오픈');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2016/11/05', '2017/06/05', 1, 'jaemin', '오픈');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2015/05/13', '2016/12/03', 1, 'eunkyul', '미들');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2016/10/31', '2017/04/20', 1, 'sumin', '미들');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2016/08/10', '2017/04/18', 1, 'seungkyun', '마감');</t>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2015/03/17', '2016/12/30', 1, 'hyungjun', '마감');</t>
+  </si>
+  <si>
+    <t>branch_staffs_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into branch_staffs (branch_staffs_seq, join_date, leave_date, branches_seq, staff_id, work_part) values(branch_staffs_seq.nextval, '2017/05/31', null, 1, 'yunjin', '오픈');</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2017/05/31'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'yunjin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '오픈'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2017/07/10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'heeeun'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2018/01/19'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'chanyoung'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '미들'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2018/02/15'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'jonghyuk'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016/11/29'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'yunseok'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2017/04/15'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'taehun'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '마감'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016/12/07'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'jaesun'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2018/01/26'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'yejee'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2014/10/31'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016/11/11'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'hyesoo'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016/11/05'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2017/06/05'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'jaemin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2015/05/13'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016/12/03'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'eunkyul'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016/10/31'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2017/04/20'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sumin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016/08/10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2017/04/18'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'seungkyun'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2015/03/17'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016/12/30'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'hyungjun'</t>
+  </si>
+  <si>
+    <t>branch_staffs_seq.nextval</t>
+  </si>
+  <si>
+    <t>staff_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff_seq.nextval</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2529,7 +2714,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3572,7 +3757,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5891,8 +6076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDAFB34E-2FEC-4B7C-B013-1E0F4A147F5F}">
   <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6572,329 +6757,363 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6CD09-0CA1-42AC-AA82-9DE22EE2FD82}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="8.75" customWidth="1"/>
-    <col min="10" max="10" width="88.625" customWidth="1"/>
-    <col min="11" max="11" width="25.625" customWidth="1"/>
-    <col min="13" max="13" width="8.25" customWidth="1"/>
-    <col min="14" max="14" width="1.375" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="88.625" customWidth="1"/>
+    <col min="12" max="12" width="25.625" customWidth="1"/>
+    <col min="14" max="14" width="8.25" customWidth="1"/>
+    <col min="15" max="15" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>239</v>
       </c>
       <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
         <v>240</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>273</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>285</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>284</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>251</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>258</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>306</v>
       </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" t="s">
         <v>271</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>274</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>286</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>296</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>252</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>259</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>307</v>
       </c>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>275</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>287</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>297</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>253</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>260</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
         <v>308</v>
       </c>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" t="s">
         <v>272</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>276</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>288</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>298</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>254</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>261</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>322</v>
       </c>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C6" t="s">
         <v>241</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>277</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>289</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>299</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>252</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>262</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C7" t="s">
         <v>242</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>278</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>290</v>
       </c>
-      <c r="E7" t="s">
-        <v>117</v>
-      </c>
       <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
         <v>256</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>263</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>320</v>
       </c>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>600</v>
+      </c>
+      <c r="C8" t="s">
         <v>243</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>279</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>291</v>
       </c>
-      <c r="E8" t="s">
-        <v>117</v>
-      </c>
       <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
         <v>255</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>264</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>319</v>
       </c>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" t="s">
         <v>244</v>
       </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
       <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
         <v>292</v>
       </c>
-      <c r="E9" t="s">
-        <v>117</v>
-      </c>
       <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
         <v>254</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>265</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>318</v>
       </c>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>600</v>
+      </c>
+      <c r="C10" t="s">
         <v>245</v>
       </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
       <c r="D10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" t="s">
         <v>293</v>
       </c>
-      <c r="E10" t="s">
-        <v>117</v>
-      </c>
       <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
         <v>257</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>266</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>317</v>
       </c>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
+        <v>600</v>
+      </c>
+      <c r="C11" t="s">
         <v>246</v>
       </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
       <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" t="s">
         <v>294</v>
       </c>
-      <c r="E11" t="s">
-        <v>117</v>
-      </c>
       <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
         <v>251</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>267</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
         <v>316</v>
       </c>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C12" t="s">
         <v>247</v>
       </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
       <c r="D12" t="s">
         <v>117</v>
       </c>
@@ -6907,102 +7126,114 @@
       <c r="G12" t="s">
         <v>117</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="H12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
         <v>315</v>
       </c>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
+        <v>600</v>
+      </c>
+      <c r="C13" t="s">
         <v>248</v>
       </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
       <c r="D13" t="s">
         <v>117</v>
       </c>
       <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
         <v>300</v>
       </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
       <c r="G13" t="s">
         <v>117</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>314</v>
       </c>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>600</v>
+      </c>
+      <c r="C14" t="s">
         <v>249</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>280</v>
       </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
       <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
         <v>301</v>
       </c>
-      <c r="F14" t="s">
-        <v>117</v>
-      </c>
       <c r="G14" t="s">
         <v>117</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="H14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
         <v>313</v>
       </c>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>600</v>
+      </c>
+      <c r="C15" t="s">
         <v>250</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>281</v>
       </c>
-      <c r="D15" t="s">
-        <v>117</v>
-      </c>
       <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
         <v>302</v>
       </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
       <c r="G15" t="s">
         <v>117</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>312</v>
       </c>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>600</v>
+      </c>
+      <c r="C16" t="s">
         <v>268</v>
       </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
       <c r="D16" t="s">
         <v>117</v>
       </c>
@@ -7015,67 +7246,76 @@
       <c r="G16" t="s">
         <v>117</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>311</v>
       </c>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>600</v>
+      </c>
+      <c r="C17" t="s">
         <v>269</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>282</v>
       </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
       <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
         <v>303</v>
       </c>
-      <c r="F17" t="s">
-        <v>117</v>
-      </c>
       <c r="G17" t="s">
         <v>117</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>310</v>
       </c>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>600</v>
+      </c>
+      <c r="C18" t="s">
         <v>270</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>283</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>295</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>304</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>252</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="H18" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>309</v>
       </c>
-      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7088,8 +7328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9811FB-3469-427E-843F-58178652C230}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8022,7 +8262,7 @@
   <dimension ref="B1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8115,7 +8355,7 @@
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8264,4 +8504,419 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7595C9E6-A79D-43D7-8A7E-F7210DC4B33B}">
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="6" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="11" max="12" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>562</v>
+      </c>
+      <c r="H2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>565</v>
+      </c>
+      <c r="H3" t="s">
+        <v>563</v>
+      </c>
+      <c r="J3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H4" t="s">
+        <v>568</v>
+      </c>
+      <c r="J4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>570</v>
+      </c>
+      <c r="H5" t="s">
+        <v>568</v>
+      </c>
+      <c r="J5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>572</v>
+      </c>
+      <c r="H6" t="s">
+        <v>568</v>
+      </c>
+      <c r="J6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C7" t="s">
+        <v>573</v>
+      </c>
+      <c r="D7" t="s">
+        <v>561</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>574</v>
+      </c>
+      <c r="H7" t="s">
+        <v>575</v>
+      </c>
+      <c r="J7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>577</v>
+      </c>
+      <c r="H8" t="s">
+        <v>575</v>
+      </c>
+      <c r="J8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>598</v>
+      </c>
+      <c r="C9" t="s">
+        <v>578</v>
+      </c>
+      <c r="D9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>579</v>
+      </c>
+      <c r="H9" t="s">
+        <v>575</v>
+      </c>
+      <c r="J9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C10" t="s">
+        <v>580</v>
+      </c>
+      <c r="D10" t="s">
+        <v>581</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>582</v>
+      </c>
+      <c r="H10" t="s">
+        <v>563</v>
+      </c>
+      <c r="J10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" t="s">
+        <v>583</v>
+      </c>
+      <c r="D11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>585</v>
+      </c>
+      <c r="H11" t="s">
+        <v>563</v>
+      </c>
+      <c r="J11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C12" t="s">
+        <v>586</v>
+      </c>
+      <c r="D12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>588</v>
+      </c>
+      <c r="H12" t="s">
+        <v>568</v>
+      </c>
+      <c r="J12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D13" t="s">
+        <v>590</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>591</v>
+      </c>
+      <c r="H13" t="s">
+        <v>568</v>
+      </c>
+      <c r="J13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>598</v>
+      </c>
+      <c r="C14" t="s">
+        <v>592</v>
+      </c>
+      <c r="D14" t="s">
+        <v>593</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>594</v>
+      </c>
+      <c r="H14" t="s">
+        <v>575</v>
+      </c>
+      <c r="J14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D15" t="s">
+        <v>596</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>597</v>
+      </c>
+      <c r="H15" t="s">
+        <v>575</v>
+      </c>
+      <c r="J15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7651D75-531E-418F-9D06-843894F48133}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7A3399-161E-4EE6-9809-E456A3173EC9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매뉴얼+공간분류+업무분류" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="631">
   <si>
     <t>위생관리</t>
   </si>
@@ -2244,12 +2244,6 @@
   </si>
   <si>
     <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '화장실 소독', '기간', '7', 5, 4);</t>
-  </si>
-  <si>
-    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '환풍기 청소', '기간', '30', 5, 5);</t>
-  </si>
-  <si>
-    <t>insert into manual_tasks(manual_task_seq, manual_task, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '대소변기 비데 및 센서점검', 5, 5);</t>
   </si>
   <si>
     <t>insert into manual_tasks(manual_task_seq, manual_task, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '이번달 프로모션 행사 홍보물 부착', 1, 6);</t>
@@ -2290,6 +2284,133 @@
 insert into task_types(task_type_seq, task_type) values(task_type_seq.nextval, '설비관리');
 insert into task_types(task_type_seq, task_type) values(task_type_seq.nextval, '고객관리');
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '대소변기 비데 및 센서점검', 5, 5);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/7 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더치커피 원액 추출</t>
+  </si>
+  <si>
+    <t>그린티 파우더 발주 신청</t>
+  </si>
+  <si>
+    <t>고객 쿠폰 사용금액 정산</t>
+  </si>
+  <si>
+    <t>'더치커피 원액 추출'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'그린티 파우더 발주 신청'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'고객 쿠폰 사용금액 정산'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'미들',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'개인',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'yunseok',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'taehun',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'2018/06/08',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'오픈',</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'오금점에서 파라솔 대여'</t>
+  </si>
+  <si>
+    <t>'문정점에서 제빙기 대여'</t>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '환풍기 청소', '기간', '30', 5, 5);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '더치커피 원액 추출', '기간', '2', 2, 2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '그린티 파우더 발주 신청', '기간', '7', 2, 2);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '고객 쿠폰 사용금액 정산', '기간', '30', 3, 3);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2386,7 +2507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2458,6 +2579,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2774,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2817,10 +2941,10 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3177,7 +3301,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3273,7 +3397,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -3290,7 +3414,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -3304,7 +3428,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -3318,15 +3442,63 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>592</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>603</v>
+      </c>
+      <c r="B37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D37" t="s">
+        <v>599</v>
+      </c>
+      <c r="E37" t="s">
+        <v>600</v>
+      </c>
+      <c r="F37" t="s">
+        <v>628</v>
+      </c>
+      <c r="G37" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>599</v>
+      </c>
+      <c r="E38" t="s">
+        <v>602</v>
+      </c>
+      <c r="F38" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>605</v>
+      </c>
+      <c r="B39" t="s">
+        <v>606</v>
+      </c>
+      <c r="D39" t="s">
+        <v>599</v>
+      </c>
+      <c r="E39" t="s">
+        <v>607</v>
+      </c>
+      <c r="F39" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3513,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B36" sqref="B36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3804,8 +3976,47 @@
         <v>34</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>608</v>
+      </c>
+      <c r="B36" t="s">
+        <v>599</v>
+      </c>
+      <c r="C36" t="s">
+        <v>600</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>609</v>
+      </c>
+      <c r="B37" t="s">
+        <v>599</v>
+      </c>
+      <c r="C37" t="s">
+        <v>602</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B38" t="s">
+        <v>599</v>
+      </c>
+      <c r="C38" t="s">
+        <v>607</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3818,14 +4029,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
@@ -4383,7 +4594,7 @@
         <v>301</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>321</v>
@@ -4743,7 +4954,7 @@
         <v>546</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>364</v>
@@ -4781,7 +4992,7 @@
         <v>547</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>364</v>
@@ -4853,7 +5064,7 @@
         <v>80</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>528</v>
@@ -4891,7 +5102,7 @@
         <v>80</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>529</v>
@@ -5335,7 +5546,7 @@
         <v>290</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>323</v>
@@ -6293,66 +6504,236 @@
       </c>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D65" s="5"/>
-      <c r="L65"/>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D66" s="5"/>
-      <c r="L66"/>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D67" s="5"/>
-      <c r="L67"/>
-      <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D68" s="5"/>
-      <c r="L68"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D69" s="5"/>
-      <c r="L69"/>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D70" s="5"/>
       <c r="L70"/>
       <c r="M70"/>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D71" s="5"/>
       <c r="L71"/>
       <c r="M71"/>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D72" s="5"/>
       <c r="L72"/>
       <c r="M72"/>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D73" s="5"/>
       <c r="L73"/>
       <c r="M73"/>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D74" s="5"/>
       <c r="L74"/>
       <c r="M74"/>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D75" s="5"/>
       <c r="L75"/>
       <c r="M75"/>
     </row>
-    <row r="76" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L76"/>
       <c r="M76"/>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="L77">
         <v>34</v>
       </c>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C7A3399-161E-4EE6-9809-E456A3173EC9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A1F08-E821-406C-BB26-93F614BB020E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <sheet name="Head_Branches DB insert용" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'매뉴얼+공간분류+업무분류'!$A$1:$A$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">일일업무코드!$A$1:$D$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="663">
   <si>
     <t>위생관리</t>
   </si>
@@ -2411,6 +2412,134 @@
   </si>
   <si>
     <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '고객 쿠폰 사용금액 정산', '기간', '30', 3, 3);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테라스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위생관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테라스 테이블, 의자 소독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '테라스 테이블, 의자 소독', '기간', '14', 4, 4);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비품관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테라스 화단 물 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟁반 소독하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '고객 쿠폰 사용금액 정산', '기간', '30', 3, 4);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POS기 감열지 재고 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, 'POS기 감열지 재고 확인', '기간', '30', 3, 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 쿠폰 사용금액 정산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더치커피 원액 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린티 파우더 발주 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화장실 방향제 교체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '화장실 방향제 교체', '기간', '14', 5, 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탬프 쿠폰 재고 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '스탬프 쿠폰 재고 확인', '기간', '30', 1, 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀프 바 컵홀더 재고량 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '셀프 바 컵홀더 재고량 확인', '기간', '7', 1, 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '테라스 화단 물 주기', '기간', '3', 4, 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머그컵 열탕 소독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '머그컵 열탕 소독', '기간', '3', 2, 1);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2452,7 +2581,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2498,6 +2627,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2507,7 +2707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2582,6 +2782,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2898,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2968,6 +3189,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -2982,6 +3206,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -2999,6 +3226,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -3013,6 +3243,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
@@ -3030,6 +3263,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -3044,6 +3280,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -3061,6 +3300,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -3095,6 +3337,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>62</v>
@@ -3110,6 +3355,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -3127,6 +3375,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -3135,6 +3386,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -3152,6 +3406,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -3166,6 +3423,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -3177,6 +3437,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -3205,6 +3468,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>64</v>
@@ -3220,6 +3486,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -3237,6 +3506,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
@@ -3251,6 +3523,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -3268,6 +3543,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -3282,6 +3560,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
@@ -3295,6 +3576,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>67</v>
       </c>
@@ -3325,6 +3609,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -3339,6 +3626,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -3356,6 +3646,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
       <c r="C30" t="s">
         <v>47</v>
       </c>
@@ -3384,6 +3677,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -3398,6 +3694,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
@@ -3415,6 +3714,9 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -3429,6 +3731,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -3446,6 +3751,9 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -3460,6 +3768,9 @@
       <c r="B37" t="s">
         <v>604</v>
       </c>
+      <c r="C37" t="s">
+        <v>647</v>
+      </c>
       <c r="D37" t="s">
         <v>599</v>
       </c>
@@ -3474,6 +3785,12 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>648</v>
+      </c>
       <c r="D38" t="s">
         <v>599</v>
       </c>
@@ -3491,6 +3808,9 @@
       <c r="B39" t="s">
         <v>606</v>
       </c>
+      <c r="C39" t="s">
+        <v>646</v>
+      </c>
       <c r="D39" t="s">
         <v>599</v>
       </c>
@@ -3501,7 +3821,168 @@
         <v>630</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>655</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="F46" s="29" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:A46" xr:uid="{C35055CD-D962-417E-9735-3055D74938BD}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3510,10 +3991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C36"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4016,6 +4497,118 @@
       </c>
       <c r="D38">
         <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>634</v>
+      </c>
+      <c r="B39" t="s">
+        <v>633</v>
+      </c>
+      <c r="C39" t="s">
+        <v>635</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>638</v>
+      </c>
+      <c r="B40" t="s">
+        <v>633</v>
+      </c>
+      <c r="C40" t="s">
+        <v>658</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>641</v>
+      </c>
+      <c r="B41" t="s">
+        <v>633</v>
+      </c>
+      <c r="C41" t="s">
+        <v>639</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>643</v>
+      </c>
+      <c r="B42" t="s">
+        <v>633</v>
+      </c>
+      <c r="C42" t="s">
+        <v>644</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>650</v>
+      </c>
+      <c r="B43" t="s">
+        <v>633</v>
+      </c>
+      <c r="C43" t="s">
+        <v>635</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>653</v>
+      </c>
+      <c r="B44" t="s">
+        <v>633</v>
+      </c>
+      <c r="C44" t="s">
+        <v>644</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>655</v>
+      </c>
+      <c r="B45" t="s">
+        <v>633</v>
+      </c>
+      <c r="C45" t="s">
+        <v>656</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>661</v>
+      </c>
+      <c r="B46" t="s">
+        <v>633</v>
+      </c>
+      <c r="C46" t="s">
+        <v>658</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/DB레코드.xlsx
+++ b/DB레코드.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A1F08-E821-406C-BB26-93F614BB020E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156FF07E-CB79-4EC3-98ED-AE5391A2D14C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15900" windowHeight="3690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="663">
   <si>
     <t>위생관리</t>
   </si>
@@ -2320,10 +2320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고객관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2459,10 +2455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '고객 쿠폰 사용금액 정산', '기간', '30', 3, 4);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POS기 감열지 재고 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2540,6 +2532,14 @@
   </si>
   <si>
     <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '머그컵 열탕 소독', '기간', '3', 2, 1);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레이 소독하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into manual_tasks(manual_task_seq, manual_task, repeat_type, repeat_detail, space_type_seq, task_type_seq) values(manual_task_seq.nextval, '트레이 소독하기', '기간', '30', 2, 4);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3122,15 +3122,14 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="158" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="184.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="76.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3192,6 +3191,9 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -3229,6 +3231,9 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
@@ -3266,6 +3271,9 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
@@ -3303,6 +3311,9 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -3340,7 +3351,9 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
@@ -3378,6 +3391,9 @@
       <c r="A14" t="s">
         <v>30</v>
       </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -3409,6 +3425,9 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
@@ -3440,6 +3459,9 @@
       <c r="A18" t="s">
         <v>30</v>
       </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
@@ -3471,7 +3493,9 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>64</v>
       </c>
@@ -3509,6 +3533,9 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
@@ -3545,6 +3572,9 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>66</v>
@@ -3579,6 +3609,9 @@
       <c r="A26" t="s">
         <v>38</v>
       </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>67</v>
       </c>
@@ -3612,6 +3645,9 @@
       <c r="A28" t="s">
         <v>40</v>
       </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
       <c r="C28" t="s">
         <v>44</v>
       </c>
@@ -3649,6 +3685,9 @@
       <c r="A30" t="s">
         <v>40</v>
       </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
       <c r="C30" t="s">
         <v>47</v>
       </c>
@@ -3680,6 +3719,9 @@
       <c r="A32" t="s">
         <v>3</v>
       </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -3717,6 +3759,9 @@
       <c r="A34" t="s">
         <v>3</v>
       </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
       <c r="C34" t="s">
         <v>51</v>
       </c>
@@ -3747,13 +3792,16 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
       <c r="C36" t="s">
         <v>69</v>
       </c>
@@ -3769,7 +3817,7 @@
         <v>604</v>
       </c>
       <c r="C37" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D37" t="s">
         <v>599</v>
@@ -3778,7 +3826,7 @@
         <v>600</v>
       </c>
       <c r="F37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G37" t="s">
         <v>601</v>
@@ -3788,8 +3836,11 @@
       <c r="A38" t="s">
         <v>13</v>
       </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
       <c r="C38" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D38" t="s">
         <v>599</v>
@@ -3798,7 +3849,7 @@
         <v>602</v>
       </c>
       <c r="F38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3806,179 +3857,179 @@
         <v>605</v>
       </c>
       <c r="B39" t="s">
-        <v>606</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D39" t="s">
         <v>599</v>
       </c>
       <c r="E39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="C40" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="E40" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="D40" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="E40" s="26" t="s">
+      <c r="F40" s="27" t="s">
         <v>635</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B41" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>638</v>
-      </c>
       <c r="D41" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
-        <v>640</v>
+        <v>13</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="D42" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>633</v>
-      </c>
       <c r="E42" s="23" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C43" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="F43" s="29" t="s">
         <v>643</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="F44" s="29" t="s">
         <v>649</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>637</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>635</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="F45" s="29" t="s">
         <v>652</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>637</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>653</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C46" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>655</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
+        <v>658</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="F47" s="31" t="s">
         <v>660</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>637</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -3993,8 +4044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4459,7 +4510,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B36" t="s">
         <v>599</v>
@@ -4473,7 +4524,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B37" t="s">
         <v>599</v>
@@ -4487,13 +4538,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B38" t="s">
         <v>599</v>
       </c>
       <c r="C38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -4501,13 +4552,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>633</v>
+      </c>
+      <c r="B39" t="s">
+        <v>632</v>
+      </c>
+      <c r="C39" t="s">
         <v>634</v>
-      </c>
-      <c r="B39" t="s">
-        <v>633</v>
-      </c>
-      <c r="C39" t="s">
-        <v>635</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -4515,13 +4566,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B40" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C40" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -4529,13 +4580,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B41" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C41" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -4543,13 +4594,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C42" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -4557,13 +4608,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B43" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -4571,13 +4622,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B44" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C44" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -4585,13 +4636,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B45" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C45" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -4599,13 +4650,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B46" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C46" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -7105,22 +7156,22 @@
         <v>301</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>348</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>308</v>
@@ -7144,22 +7195,22 @@
         <v>301</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F66" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>619</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>308</v>
@@ -7183,22 +7234,22 @@
         <v>301</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>308</v>
@@ -7222,19 +7273,19 @@
         <v>301</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>348</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>308</v>
@@ -7261,19 +7312,19 @@
         <v>301</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>348</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>308</v>
